--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="312">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,21 @@
     <t>['9', '75', '90+2']</t>
   </si>
   <si>
+    <t>['11', '20', '32', '70', '81']</t>
+  </si>
+  <si>
+    <t>['52', '68']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['27', '31', '43', '83']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -932,6 +947,9 @@
   </si>
   <si>
     <t>['19', '71']</t>
+  </si>
+  <si>
+    <t>['55', '58', '71']</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1552,7 +1570,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1836,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ3">
         <v>0.9399999999999999</v>
@@ -1964,7 +1982,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2042,10 +2060,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2376,7 +2394,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2582,7 +2600,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -2660,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR7">
         <v>1.59</v>
@@ -3075,7 +3093,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ9">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3281,7 +3299,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ10">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3406,7 +3424,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3484,10 +3502,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ11">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3612,7 +3630,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3690,7 +3708,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -4024,7 +4042,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4105,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR14">
         <v>0.82</v>
@@ -4308,7 +4326,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ15">
         <v>1.93</v>
@@ -4436,7 +4454,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4720,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ17">
         <v>1.38</v>
@@ -4848,7 +4866,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4926,10 +4944,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR18">
         <v>1.28</v>
@@ -5054,7 +5072,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q19">
         <v>4.75</v>
@@ -5132,10 +5150,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR19">
         <v>1.46</v>
@@ -5750,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ22">
         <v>0.9399999999999999</v>
@@ -5956,10 +5974,10 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ23">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR23">
         <v>1.19</v>
@@ -6084,7 +6102,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6162,10 +6180,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ24">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR24">
         <v>1.08</v>
@@ -6290,7 +6308,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6496,7 +6514,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6574,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ26">
         <v>0.88</v>
@@ -6702,7 +6720,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6783,7 +6801,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR27">
         <v>0.89</v>
@@ -7401,7 +7419,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ30">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.93</v>
@@ -7526,7 +7544,7 @@
         <v>85</v>
       </c>
       <c r="P31" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7604,10 +7622,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ31">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR31">
         <v>1.46</v>
@@ -7732,7 +7750,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q32">
         <v>1.83</v>
@@ -8019,7 +8037,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ33">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR33">
         <v>1.47</v>
@@ -8144,7 +8162,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8222,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ34">
         <v>0.88</v>
@@ -8431,7 +8449,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ35">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR35">
         <v>1.94</v>
@@ -8840,7 +8858,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37">
         <v>1.5</v>
@@ -9174,7 +9192,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q39">
         <v>1.83</v>
@@ -9252,10 +9270,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ39">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.1</v>
@@ -9586,7 +9604,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9667,7 +9685,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ41">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR41">
         <v>2.47</v>
@@ -9792,7 +9810,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9873,7 +9891,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ42">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR42">
         <v>1.52</v>
@@ -9998,7 +10016,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10076,7 +10094,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -10285,7 +10303,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ44">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR44">
         <v>1.05</v>
@@ -10488,7 +10506,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ45">
         <v>1.56</v>
@@ -10822,7 +10840,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10903,7 +10921,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ47">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -11028,7 +11046,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -11106,7 +11124,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ48">
         <v>1.38</v>
@@ -11315,7 +11333,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ49">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>2.19</v>
@@ -11440,7 +11458,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11646,7 +11664,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11724,10 +11742,10 @@
         <v>2.4</v>
       </c>
       <c r="AP51">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ51">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR51">
         <v>0.9399999999999999</v>
@@ -11852,7 +11870,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11930,7 +11948,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
         <v>1.56</v>
@@ -12136,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ53">
         <v>0.5600000000000001</v>
@@ -12264,7 +12282,7 @@
         <v>114</v>
       </c>
       <c r="P54" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q54">
         <v>9.5</v>
@@ -12345,7 +12363,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ54">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR54">
         <v>1.83</v>
@@ -12548,10 +12566,10 @@
         <v>2.5</v>
       </c>
       <c r="AP55">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ55">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR55">
         <v>1.17</v>
@@ -12676,7 +12694,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -12960,7 +12978,7 @@
         <v>2.5</v>
       </c>
       <c r="AP57">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
         <v>1.93</v>
@@ -13166,10 +13184,10 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ58">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR58">
         <v>1.13</v>
@@ -13500,7 +13518,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13706,7 +13724,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -14118,7 +14136,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -14324,7 +14342,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14608,10 +14626,10 @@
         <v>1.4</v>
       </c>
       <c r="AP65">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ65">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -14736,7 +14754,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14814,7 +14832,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66">
         <v>0.9399999999999999</v>
@@ -15023,7 +15041,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ67">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR67">
         <v>2.85</v>
@@ -15226,10 +15244,10 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ68">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.7</v>
@@ -15354,7 +15372,7 @@
         <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15432,10 +15450,10 @@
         <v>1.2</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ69">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR69">
         <v>1.2</v>
@@ -15560,7 +15578,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q70">
         <v>9</v>
@@ -15638,7 +15656,7 @@
         <v>2.6</v>
       </c>
       <c r="AP70">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ70">
         <v>1.93</v>
@@ -15847,7 +15865,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ71">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -15972,7 +15990,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -16178,7 +16196,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q73">
         <v>1.73</v>
@@ -16256,7 +16274,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ73">
         <v>0.5600000000000001</v>
@@ -16590,7 +16608,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -17002,7 +17020,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17083,7 +17101,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ77">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -17208,7 +17226,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17286,7 +17304,7 @@
         <v>1.14</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ78">
         <v>1.38</v>
@@ -17414,7 +17432,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17698,7 +17716,7 @@
         <v>2.17</v>
       </c>
       <c r="AP80">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ80">
         <v>1.56</v>
@@ -17826,7 +17844,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -17904,10 +17922,10 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ81">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR81">
         <v>0.87</v>
@@ -18113,7 +18131,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ82">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.39</v>
@@ -18238,7 +18256,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18319,7 +18337,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ83">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR83">
         <v>1.47</v>
@@ -18444,7 +18462,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -18522,10 +18540,10 @@
         <v>2.5</v>
       </c>
       <c r="AP84">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ84">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR84">
         <v>1.66</v>
@@ -18650,7 +18668,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18728,7 +18746,7 @@
         <v>2.43</v>
       </c>
       <c r="AP85">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ85">
         <v>1.93</v>
@@ -18937,7 +18955,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ86">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR86">
         <v>1.39</v>
@@ -19140,7 +19158,7 @@
         <v>1.17</v>
       </c>
       <c r="AP87">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ87">
         <v>0.88</v>
@@ -19680,7 +19698,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -19758,10 +19776,10 @@
         <v>1.29</v>
       </c>
       <c r="AP90">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ90">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR90">
         <v>0.87</v>
@@ -20092,7 +20110,7 @@
         <v>150</v>
       </c>
       <c r="P92" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20170,10 +20188,10 @@
         <v>1.29</v>
       </c>
       <c r="AP92">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ92">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR92">
         <v>1.58</v>
@@ -20504,7 +20522,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20916,7 +20934,7 @@
         <v>153</v>
       </c>
       <c r="P96" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -20997,7 +21015,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR96">
         <v>1.34</v>
@@ -21406,10 +21424,10 @@
         <v>0.5</v>
       </c>
       <c r="AP98">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ98">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.69</v>
@@ -21612,7 +21630,7 @@
         <v>1.25</v>
       </c>
       <c r="AP99">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ99">
         <v>0.9399999999999999</v>
@@ -21740,7 +21758,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q100">
         <v>1.73</v>
@@ -21946,7 +21964,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q101">
         <v>3.4</v>
@@ -22027,7 +22045,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ101">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR101">
         <v>1.77</v>
@@ -22152,7 +22170,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22233,7 +22251,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR102">
         <v>1.32</v>
@@ -22358,7 +22376,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22851,7 +22869,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ105">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR105">
         <v>1.31</v>
@@ -23054,7 +23072,7 @@
         <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ106">
         <v>0.5600000000000001</v>
@@ -23182,7 +23200,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23260,10 +23278,10 @@
         <v>1.67</v>
       </c>
       <c r="AP107">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ107">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23388,7 +23406,7 @@
         <v>163</v>
       </c>
       <c r="P108" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q108">
         <v>2.75</v>
@@ -23466,7 +23484,7 @@
         <v>1.38</v>
       </c>
       <c r="AP108">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ108">
         <v>1.38</v>
@@ -23800,7 +23818,7 @@
         <v>165</v>
       </c>
       <c r="P110" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24084,7 +24102,7 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ111">
         <v>1.56</v>
@@ -24212,7 +24230,7 @@
         <v>167</v>
       </c>
       <c r="P112" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q112">
         <v>1.4</v>
@@ -24293,7 +24311,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ112">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>2.55</v>
@@ -24418,7 +24436,7 @@
         <v>168</v>
       </c>
       <c r="P113" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24496,7 +24514,7 @@
         <v>2.22</v>
       </c>
       <c r="AP113">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ113">
         <v>1.93</v>
@@ -24624,7 +24642,7 @@
         <v>98</v>
       </c>
       <c r="P114" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -24705,7 +24723,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ114">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.45</v>
@@ -24830,7 +24848,7 @@
         <v>85</v>
       </c>
       <c r="P115" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -25114,7 +25132,7 @@
         <v>1.22</v>
       </c>
       <c r="AP116">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ116">
         <v>0.9399999999999999</v>
@@ -25242,7 +25260,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25448,7 +25466,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25526,10 +25544,10 @@
         <v>2</v>
       </c>
       <c r="AP118">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ118">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR118">
         <v>1.4</v>
@@ -25941,7 +25959,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ120">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR120">
         <v>2.7</v>
@@ -26066,7 +26084,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q121">
         <v>2.1</v>
@@ -26147,7 +26165,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ121">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR121">
         <v>1.88</v>
@@ -26350,10 +26368,10 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ122">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR122">
         <v>1.73</v>
@@ -26556,7 +26574,7 @@
         <v>0.3</v>
       </c>
       <c r="AP123">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ123">
         <v>0.5600000000000001</v>
@@ -26684,7 +26702,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q124">
         <v>1.44</v>
@@ -26765,7 +26783,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ124">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR124">
         <v>2.58</v>
@@ -26968,10 +26986,10 @@
         <v>0.67</v>
       </c>
       <c r="AP125">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ125">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.41</v>
@@ -27177,7 +27195,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ126">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR126">
         <v>1.81</v>
@@ -27302,7 +27320,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q127">
         <v>2.3</v>
@@ -27508,7 +27526,7 @@
         <v>139</v>
       </c>
       <c r="P128" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27586,10 +27604,10 @@
         <v>0.6</v>
       </c>
       <c r="AP128">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ128">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR128">
         <v>1.06</v>
@@ -27792,7 +27810,7 @@
         <v>0.7</v>
       </c>
       <c r="AP129">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ129">
         <v>0.88</v>
@@ -27920,7 +27938,7 @@
         <v>85</v>
       </c>
       <c r="P130" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -28001,7 +28019,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ130">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR130">
         <v>1.5</v>
@@ -28126,7 +28144,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -28410,7 +28428,7 @@
         <v>1.9</v>
       </c>
       <c r="AP132">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ132">
         <v>1.5</v>
@@ -28538,7 +28556,7 @@
         <v>85</v>
       </c>
       <c r="P133" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q133">
         <v>2.75</v>
@@ -28744,7 +28762,7 @@
         <v>179</v>
       </c>
       <c r="P134" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q134">
         <v>4.75</v>
@@ -28950,7 +28968,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29031,7 +29049,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ135">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.57</v>
@@ -29156,7 +29174,7 @@
         <v>120</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q136">
         <v>3.75</v>
@@ -29234,7 +29252,7 @@
         <v>1.09</v>
       </c>
       <c r="AP136">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ136">
         <v>1.38</v>
@@ -29362,7 +29380,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q137">
         <v>2.38</v>
@@ -29440,7 +29458,7 @@
         <v>1.36</v>
       </c>
       <c r="AP137">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ137">
         <v>0.9399999999999999</v>
@@ -29646,10 +29664,10 @@
         <v>1.09</v>
       </c>
       <c r="AP138">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ138">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR138">
         <v>1.74</v>
@@ -29774,7 +29792,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q139">
         <v>2.7</v>
@@ -30267,7 +30285,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ141">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR141">
         <v>1.54</v>
@@ -30470,7 +30488,7 @@
         <v>0.64</v>
       </c>
       <c r="AP142">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ142">
         <v>0.88</v>
@@ -30598,7 +30616,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -30804,7 +30822,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q144">
         <v>1.53</v>
@@ -30885,7 +30903,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ144">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR144">
         <v>2.6</v>
@@ -31088,7 +31106,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ145">
         <v>0.5600000000000001</v>
@@ -31500,7 +31518,7 @@
         <v>1.75</v>
       </c>
       <c r="AP147">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ147">
         <v>1.5</v>
@@ -31915,7 +31933,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ149">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR149">
         <v>1.53</v>
@@ -32246,7 +32264,7 @@
         <v>85</v>
       </c>
       <c r="P151" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -32324,10 +32342,10 @@
         <v>2.18</v>
       </c>
       <c r="AP151">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ151">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR151">
         <v>1.4</v>
@@ -32452,7 +32470,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -32533,7 +32551,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ152">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR152">
         <v>1.39</v>
@@ -32736,10 +32754,10 @@
         <v>1.33</v>
       </c>
       <c r="AP153">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ153">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR153">
         <v>1.55</v>
@@ -32942,10 +32960,10 @@
         <v>0.75</v>
       </c>
       <c r="AP154">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ154">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR154">
         <v>1.1</v>
@@ -33070,7 +33088,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33148,7 +33166,7 @@
         <v>2</v>
       </c>
       <c r="AP155">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ155">
         <v>1.93</v>
@@ -33276,7 +33294,7 @@
         <v>85</v>
       </c>
       <c r="P156" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q156">
         <v>2.88</v>
@@ -33354,10 +33372,10 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ156">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR156">
         <v>1.42</v>
@@ -33482,7 +33500,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q157">
         <v>2.63</v>
@@ -33560,10 +33578,10 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ157">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR157">
         <v>1.81</v>
@@ -33688,7 +33706,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34100,7 +34118,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q160">
         <v>2.88</v>
@@ -34512,7 +34530,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -34718,7 +34736,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q163">
         <v>2.2</v>
@@ -35005,7 +35023,7 @@
         <v>1</v>
       </c>
       <c r="AQ164">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR164">
         <v>1.48</v>
@@ -35130,7 +35148,7 @@
         <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q165">
         <v>1.83</v>
@@ -35208,7 +35226,7 @@
         <v>0.43</v>
       </c>
       <c r="AP165">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ165">
         <v>0.5600000000000001</v>
@@ -35829,7 +35847,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ168">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR168">
         <v>1.65</v>
@@ -36238,7 +36256,7 @@
         <v>1.07</v>
       </c>
       <c r="AP170">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ170">
         <v>0.9399999999999999</v>
@@ -36366,7 +36384,7 @@
         <v>97</v>
       </c>
       <c r="P171" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36444,7 +36462,7 @@
         <v>1.86</v>
       </c>
       <c r="AP171">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ171">
         <v>1.93</v>
@@ -36572,7 +36590,7 @@
         <v>206</v>
       </c>
       <c r="P172" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -36653,7 +36671,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ172">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR172">
         <v>1.51</v>
@@ -36856,10 +36874,10 @@
         <v>0.93</v>
       </c>
       <c r="AP173">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ173">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR173">
         <v>1.05</v>
@@ -36984,7 +37002,7 @@
         <v>85</v>
       </c>
       <c r="P174" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q174">
         <v>6.75</v>
@@ -37065,7 +37083,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ174">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR174">
         <v>1.5</v>
@@ -37190,7 +37208,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37268,7 +37286,7 @@
         <v>1.36</v>
       </c>
       <c r="AP175">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ175">
         <v>1.38</v>
@@ -37396,7 +37414,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q176">
         <v>2.05</v>
@@ -37474,10 +37492,10 @@
         <v>0.93</v>
       </c>
       <c r="AP176">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ176">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR176">
         <v>1.49</v>
@@ -37602,7 +37620,7 @@
         <v>134</v>
       </c>
       <c r="P177" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q177">
         <v>3.64</v>
@@ -37680,7 +37698,7 @@
         <v>0.57</v>
       </c>
       <c r="AP177">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ177">
         <v>0.88</v>
@@ -37889,7 +37907,7 @@
         <v>1</v>
       </c>
       <c r="AQ178">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR178">
         <v>1.48</v>
@@ -38095,7 +38113,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ179">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR179">
         <v>1.63</v>
@@ -38301,7 +38319,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ180">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR180">
         <v>1.34</v>
@@ -38504,7 +38522,7 @@
         <v>1.71</v>
       </c>
       <c r="AP181">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ181">
         <v>1.56</v>
@@ -38838,7 +38856,7 @@
         <v>212</v>
       </c>
       <c r="P183" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q183">
         <v>1.5</v>
@@ -39044,7 +39062,7 @@
         <v>213</v>
       </c>
       <c r="P184" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q184">
         <v>1.91</v>
@@ -39250,7 +39268,7 @@
         <v>214</v>
       </c>
       <c r="P185" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -39456,7 +39474,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q186">
         <v>2.25</v>
@@ -39662,7 +39680,7 @@
         <v>85</v>
       </c>
       <c r="P187" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -39819,6 +39837,1036 @@
       </c>
       <c r="BP187">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7817227</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45766.36458333334</v>
+      </c>
+      <c r="F188">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>71</v>
+      </c>
+      <c r="H188" t="s">
+        <v>74</v>
+      </c>
+      <c r="I188">
+        <v>3</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>3</v>
+      </c>
+      <c r="L188">
+        <v>5</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>5</v>
+      </c>
+      <c r="O188" t="s">
+        <v>216</v>
+      </c>
+      <c r="P188" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q188">
+        <v>1.91</v>
+      </c>
+      <c r="R188">
+        <v>2.5</v>
+      </c>
+      <c r="S188">
+        <v>5.5</v>
+      </c>
+      <c r="T188">
+        <v>1.29</v>
+      </c>
+      <c r="U188">
+        <v>3.5</v>
+      </c>
+      <c r="V188">
+        <v>2.25</v>
+      </c>
+      <c r="W188">
+        <v>1.57</v>
+      </c>
+      <c r="X188">
+        <v>5</v>
+      </c>
+      <c r="Y188">
+        <v>1.14</v>
+      </c>
+      <c r="Z188">
+        <v>1.44</v>
+      </c>
+      <c r="AA188">
+        <v>5.4</v>
+      </c>
+      <c r="AB188">
+        <v>5.4</v>
+      </c>
+      <c r="AC188">
+        <v>1.01</v>
+      </c>
+      <c r="AD188">
+        <v>17</v>
+      </c>
+      <c r="AE188">
+        <v>1.09</v>
+      </c>
+      <c r="AF188">
+        <v>5.3</v>
+      </c>
+      <c r="AG188">
+        <v>1.48</v>
+      </c>
+      <c r="AH188">
+        <v>2.47</v>
+      </c>
+      <c r="AI188">
+        <v>1.8</v>
+      </c>
+      <c r="AJ188">
+        <v>1.91</v>
+      </c>
+      <c r="AK188">
+        <v>1.07</v>
+      </c>
+      <c r="AL188">
+        <v>1.12</v>
+      </c>
+      <c r="AM188">
+        <v>2.88</v>
+      </c>
+      <c r="AN188">
+        <v>1.8</v>
+      </c>
+      <c r="AO188">
+        <v>1.07</v>
+      </c>
+      <c r="AP188">
+        <v>1.88</v>
+      </c>
+      <c r="AQ188">
+        <v>1</v>
+      </c>
+      <c r="AR188">
+        <v>1.5</v>
+      </c>
+      <c r="AS188">
+        <v>1.52</v>
+      </c>
+      <c r="AT188">
+        <v>3.02</v>
+      </c>
+      <c r="AU188">
+        <v>13</v>
+      </c>
+      <c r="AV188">
+        <v>3</v>
+      </c>
+      <c r="AW188">
+        <v>7</v>
+      </c>
+      <c r="AX188">
+        <v>8</v>
+      </c>
+      <c r="AY188">
+        <v>20</v>
+      </c>
+      <c r="AZ188">
+        <v>11</v>
+      </c>
+      <c r="BA188">
+        <v>9</v>
+      </c>
+      <c r="BB188">
+        <v>4</v>
+      </c>
+      <c r="BC188">
+        <v>13</v>
+      </c>
+      <c r="BD188">
+        <v>0</v>
+      </c>
+      <c r="BE188">
+        <v>0</v>
+      </c>
+      <c r="BF188">
+        <v>0</v>
+      </c>
+      <c r="BG188">
+        <v>0</v>
+      </c>
+      <c r="BH188">
+        <v>0</v>
+      </c>
+      <c r="BI188">
+        <v>0</v>
+      </c>
+      <c r="BJ188">
+        <v>0</v>
+      </c>
+      <c r="BK188">
+        <v>0</v>
+      </c>
+      <c r="BL188">
+        <v>0</v>
+      </c>
+      <c r="BM188">
+        <v>0</v>
+      </c>
+      <c r="BN188">
+        <v>0</v>
+      </c>
+      <c r="BO188">
+        <v>0</v>
+      </c>
+      <c r="BP188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7817224</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45766.36458333334</v>
+      </c>
+      <c r="F189">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>79</v>
+      </c>
+      <c r="H189" t="s">
+        <v>75</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>3</v>
+      </c>
+      <c r="O189" t="s">
+        <v>217</v>
+      </c>
+      <c r="P189" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q189">
+        <v>2.88</v>
+      </c>
+      <c r="R189">
+        <v>2.2</v>
+      </c>
+      <c r="S189">
+        <v>3.25</v>
+      </c>
+      <c r="T189">
+        <v>1.33</v>
+      </c>
+      <c r="U189">
+        <v>3.25</v>
+      </c>
+      <c r="V189">
+        <v>2.63</v>
+      </c>
+      <c r="W189">
+        <v>1.44</v>
+      </c>
+      <c r="X189">
+        <v>6</v>
+      </c>
+      <c r="Y189">
+        <v>1.11</v>
+      </c>
+      <c r="Z189">
+        <v>2.29</v>
+      </c>
+      <c r="AA189">
+        <v>3.79</v>
+      </c>
+      <c r="AB189">
+        <v>2.71</v>
+      </c>
+      <c r="AC189">
+        <v>1.01</v>
+      </c>
+      <c r="AD189">
+        <v>11</v>
+      </c>
+      <c r="AE189">
+        <v>1.17</v>
+      </c>
+      <c r="AF189">
+        <v>3.98</v>
+      </c>
+      <c r="AG189">
+        <v>1.67</v>
+      </c>
+      <c r="AH189">
+        <v>2</v>
+      </c>
+      <c r="AI189">
+        <v>1.62</v>
+      </c>
+      <c r="AJ189">
+        <v>2.2</v>
+      </c>
+      <c r="AK189">
+        <v>1.41</v>
+      </c>
+      <c r="AL189">
+        <v>1.25</v>
+      </c>
+      <c r="AM189">
+        <v>1.52</v>
+      </c>
+      <c r="AN189">
+        <v>1.33</v>
+      </c>
+      <c r="AO189">
+        <v>1.2</v>
+      </c>
+      <c r="AP189">
+        <v>1.44</v>
+      </c>
+      <c r="AQ189">
+        <v>1.13</v>
+      </c>
+      <c r="AR189">
+        <v>1.38</v>
+      </c>
+      <c r="AS189">
+        <v>1.23</v>
+      </c>
+      <c r="AT189">
+        <v>2.61</v>
+      </c>
+      <c r="AU189">
+        <v>5</v>
+      </c>
+      <c r="AV189">
+        <v>5</v>
+      </c>
+      <c r="AW189">
+        <v>5</v>
+      </c>
+      <c r="AX189">
+        <v>4</v>
+      </c>
+      <c r="AY189">
+        <v>10</v>
+      </c>
+      <c r="AZ189">
+        <v>9</v>
+      </c>
+      <c r="BA189">
+        <v>3</v>
+      </c>
+      <c r="BB189">
+        <v>4</v>
+      </c>
+      <c r="BC189">
+        <v>7</v>
+      </c>
+      <c r="BD189">
+        <v>0</v>
+      </c>
+      <c r="BE189">
+        <v>0</v>
+      </c>
+      <c r="BF189">
+        <v>0</v>
+      </c>
+      <c r="BG189">
+        <v>0</v>
+      </c>
+      <c r="BH189">
+        <v>0</v>
+      </c>
+      <c r="BI189">
+        <v>0</v>
+      </c>
+      <c r="BJ189">
+        <v>0</v>
+      </c>
+      <c r="BK189">
+        <v>0</v>
+      </c>
+      <c r="BL189">
+        <v>0</v>
+      </c>
+      <c r="BM189">
+        <v>0</v>
+      </c>
+      <c r="BN189">
+        <v>0</v>
+      </c>
+      <c r="BO189">
+        <v>0</v>
+      </c>
+      <c r="BP189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7817225</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45766.36458333334</v>
+      </c>
+      <c r="F190">
+        <v>10</v>
+      </c>
+      <c r="G190" t="s">
+        <v>80</v>
+      </c>
+      <c r="H190" t="s">
+        <v>81</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>3</v>
+      </c>
+      <c r="N190">
+        <v>4</v>
+      </c>
+      <c r="O190" t="s">
+        <v>218</v>
+      </c>
+      <c r="P190" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q190">
+        <v>6.5</v>
+      </c>
+      <c r="R190">
+        <v>2.38</v>
+      </c>
+      <c r="S190">
+        <v>1.91</v>
+      </c>
+      <c r="T190">
+        <v>1.33</v>
+      </c>
+      <c r="U190">
+        <v>3.25</v>
+      </c>
+      <c r="V190">
+        <v>2.5</v>
+      </c>
+      <c r="W190">
+        <v>1.5</v>
+      </c>
+      <c r="X190">
+        <v>6</v>
+      </c>
+      <c r="Y190">
+        <v>1.11</v>
+      </c>
+      <c r="Z190">
+        <v>6.5</v>
+      </c>
+      <c r="AA190">
+        <v>4.1</v>
+      </c>
+      <c r="AB190">
+        <v>1.42</v>
+      </c>
+      <c r="AC190">
+        <v>1.01</v>
+      </c>
+      <c r="AD190">
+        <v>13</v>
+      </c>
+      <c r="AE190">
+        <v>1.18</v>
+      </c>
+      <c r="AF190">
+        <v>3.88</v>
+      </c>
+      <c r="AG190">
+        <v>1.7</v>
+      </c>
+      <c r="AH190">
+        <v>2.1</v>
+      </c>
+      <c r="AI190">
+        <v>1.91</v>
+      </c>
+      <c r="AJ190">
+        <v>1.8</v>
+      </c>
+      <c r="AK190">
+        <v>2.75</v>
+      </c>
+      <c r="AL190">
+        <v>1.17</v>
+      </c>
+      <c r="AM190">
+        <v>1.04</v>
+      </c>
+      <c r="AN190">
+        <v>1.8</v>
+      </c>
+      <c r="AO190">
+        <v>2.2</v>
+      </c>
+      <c r="AP190">
+        <v>1.69</v>
+      </c>
+      <c r="AQ190">
+        <v>2.25</v>
+      </c>
+      <c r="AR190">
+        <v>1.54</v>
+      </c>
+      <c r="AS190">
+        <v>2.1</v>
+      </c>
+      <c r="AT190">
+        <v>3.64</v>
+      </c>
+      <c r="AU190">
+        <v>3</v>
+      </c>
+      <c r="AV190">
+        <v>7</v>
+      </c>
+      <c r="AW190">
+        <v>4</v>
+      </c>
+      <c r="AX190">
+        <v>4</v>
+      </c>
+      <c r="AY190">
+        <v>7</v>
+      </c>
+      <c r="AZ190">
+        <v>11</v>
+      </c>
+      <c r="BA190">
+        <v>4</v>
+      </c>
+      <c r="BB190">
+        <v>7</v>
+      </c>
+      <c r="BC190">
+        <v>11</v>
+      </c>
+      <c r="BD190">
+        <v>0</v>
+      </c>
+      <c r="BE190">
+        <v>0</v>
+      </c>
+      <c r="BF190">
+        <v>0</v>
+      </c>
+      <c r="BG190">
+        <v>0</v>
+      </c>
+      <c r="BH190">
+        <v>0</v>
+      </c>
+      <c r="BI190">
+        <v>0</v>
+      </c>
+      <c r="BJ190">
+        <v>0</v>
+      </c>
+      <c r="BK190">
+        <v>0</v>
+      </c>
+      <c r="BL190">
+        <v>0</v>
+      </c>
+      <c r="BM190">
+        <v>0</v>
+      </c>
+      <c r="BN190">
+        <v>0</v>
+      </c>
+      <c r="BO190">
+        <v>0</v>
+      </c>
+      <c r="BP190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7817226</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45766.36458333334</v>
+      </c>
+      <c r="F191">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>78</v>
+      </c>
+      <c r="H191" t="s">
+        <v>73</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>219</v>
+      </c>
+      <c r="P191" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q191">
+        <v>6</v>
+      </c>
+      <c r="R191">
+        <v>2.5</v>
+      </c>
+      <c r="S191">
+        <v>1.91</v>
+      </c>
+      <c r="T191">
+        <v>1.29</v>
+      </c>
+      <c r="U191">
+        <v>3.5</v>
+      </c>
+      <c r="V191">
+        <v>2.25</v>
+      </c>
+      <c r="W191">
+        <v>1.57</v>
+      </c>
+      <c r="X191">
+        <v>5</v>
+      </c>
+      <c r="Y191">
+        <v>1.14</v>
+      </c>
+      <c r="Z191">
+        <v>5.4</v>
+      </c>
+      <c r="AA191">
+        <v>5.4</v>
+      </c>
+      <c r="AB191">
+        <v>1.44</v>
+      </c>
+      <c r="AC191">
+        <v>1.01</v>
+      </c>
+      <c r="AD191">
+        <v>13</v>
+      </c>
+      <c r="AE191">
+        <v>1.12</v>
+      </c>
+      <c r="AF191">
+        <v>4.75</v>
+      </c>
+      <c r="AG191">
+        <v>1.5</v>
+      </c>
+      <c r="AH191">
+        <v>2.41</v>
+      </c>
+      <c r="AI191">
+        <v>1.8</v>
+      </c>
+      <c r="AJ191">
+        <v>1.91</v>
+      </c>
+      <c r="AK191">
+        <v>2.83</v>
+      </c>
+      <c r="AL191">
+        <v>1.14</v>
+      </c>
+      <c r="AM191">
+        <v>1.06</v>
+      </c>
+      <c r="AN191">
+        <v>0.73</v>
+      </c>
+      <c r="AO191">
+        <v>1.2</v>
+      </c>
+      <c r="AP191">
+        <v>0.75</v>
+      </c>
+      <c r="AQ191">
+        <v>1.19</v>
+      </c>
+      <c r="AR191">
+        <v>1.09</v>
+      </c>
+      <c r="AS191">
+        <v>1.44</v>
+      </c>
+      <c r="AT191">
+        <v>2.53</v>
+      </c>
+      <c r="AU191">
+        <v>3</v>
+      </c>
+      <c r="AV191">
+        <v>7</v>
+      </c>
+      <c r="AW191">
+        <v>6</v>
+      </c>
+      <c r="AX191">
+        <v>6</v>
+      </c>
+      <c r="AY191">
+        <v>9</v>
+      </c>
+      <c r="AZ191">
+        <v>13</v>
+      </c>
+      <c r="BA191">
+        <v>7</v>
+      </c>
+      <c r="BB191">
+        <v>10</v>
+      </c>
+      <c r="BC191">
+        <v>17</v>
+      </c>
+      <c r="BD191">
+        <v>0</v>
+      </c>
+      <c r="BE191">
+        <v>0</v>
+      </c>
+      <c r="BF191">
+        <v>0</v>
+      </c>
+      <c r="BG191">
+        <v>0</v>
+      </c>
+      <c r="BH191">
+        <v>0</v>
+      </c>
+      <c r="BI191">
+        <v>0</v>
+      </c>
+      <c r="BJ191">
+        <v>0</v>
+      </c>
+      <c r="BK191">
+        <v>0</v>
+      </c>
+      <c r="BL191">
+        <v>0</v>
+      </c>
+      <c r="BM191">
+        <v>0</v>
+      </c>
+      <c r="BN191">
+        <v>0</v>
+      </c>
+      <c r="BO191">
+        <v>0</v>
+      </c>
+      <c r="BP191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7817228</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45766.36458333334</v>
+      </c>
+      <c r="F192">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
+        <v>72</v>
+      </c>
+      <c r="H192" t="s">
+        <v>70</v>
+      </c>
+      <c r="I192">
+        <v>3</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>3</v>
+      </c>
+      <c r="L192">
+        <v>4</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>4</v>
+      </c>
+      <c r="O192" t="s">
+        <v>220</v>
+      </c>
+      <c r="P192" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q192">
+        <v>2.4</v>
+      </c>
+      <c r="R192">
+        <v>2.38</v>
+      </c>
+      <c r="S192">
+        <v>3.6</v>
+      </c>
+      <c r="T192">
+        <v>1.29</v>
+      </c>
+      <c r="U192">
+        <v>3.5</v>
+      </c>
+      <c r="V192">
+        <v>2.25</v>
+      </c>
+      <c r="W192">
+        <v>1.57</v>
+      </c>
+      <c r="X192">
+        <v>5</v>
+      </c>
+      <c r="Y192">
+        <v>1.14</v>
+      </c>
+      <c r="Z192">
+        <v>2.06</v>
+      </c>
+      <c r="AA192">
+        <v>3.76</v>
+      </c>
+      <c r="AB192">
+        <v>3.13</v>
+      </c>
+      <c r="AC192">
+        <v>1.01</v>
+      </c>
+      <c r="AD192">
+        <v>13</v>
+      </c>
+      <c r="AE192">
+        <v>1.1</v>
+      </c>
+      <c r="AF192">
+        <v>5.2</v>
+      </c>
+      <c r="AG192">
+        <v>1.55</v>
+      </c>
+      <c r="AH192">
+        <v>2.2</v>
+      </c>
+      <c r="AI192">
+        <v>1.53</v>
+      </c>
+      <c r="AJ192">
+        <v>2.38</v>
+      </c>
+      <c r="AK192">
+        <v>1.27</v>
+      </c>
+      <c r="AL192">
+        <v>1.22</v>
+      </c>
+      <c r="AM192">
+        <v>1.77</v>
+      </c>
+      <c r="AN192">
+        <v>1.67</v>
+      </c>
+      <c r="AO192">
+        <v>0.87</v>
+      </c>
+      <c r="AP192">
+        <v>1.75</v>
+      </c>
+      <c r="AQ192">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR192">
+        <v>1.84</v>
+      </c>
+      <c r="AS192">
+        <v>1.4</v>
+      </c>
+      <c r="AT192">
+        <v>3.24</v>
+      </c>
+      <c r="AU192">
+        <v>8</v>
+      </c>
+      <c r="AV192">
+        <v>5</v>
+      </c>
+      <c r="AW192">
+        <v>5</v>
+      </c>
+      <c r="AX192">
+        <v>7</v>
+      </c>
+      <c r="AY192">
+        <v>13</v>
+      </c>
+      <c r="AZ192">
+        <v>12</v>
+      </c>
+      <c r="BA192">
+        <v>7</v>
+      </c>
+      <c r="BB192">
+        <v>5</v>
+      </c>
+      <c r="BC192">
+        <v>12</v>
+      </c>
+      <c r="BD192">
+        <v>0</v>
+      </c>
+      <c r="BE192">
+        <v>0</v>
+      </c>
+      <c r="BF192">
+        <v>0</v>
+      </c>
+      <c r="BG192">
+        <v>0</v>
+      </c>
+      <c r="BH192">
+        <v>0</v>
+      </c>
+      <c r="BI192">
+        <v>0</v>
+      </c>
+      <c r="BJ192">
+        <v>0</v>
+      </c>
+      <c r="BK192">
+        <v>0</v>
+      </c>
+      <c r="BL192">
+        <v>0</v>
+      </c>
+      <c r="BM192">
+        <v>0</v>
+      </c>
+      <c r="BN192">
+        <v>0</v>
+      </c>
+      <c r="BO192">
+        <v>0</v>
+      </c>
+      <c r="BP192">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="314">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -679,6 +679,9 @@
     <t>['27', '31', '43', '83']</t>
   </si>
   <si>
+    <t>['45', '50', '86']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -950,6 +953,9 @@
   </si>
   <si>
     <t>['55', '58', '71']</t>
+  </si>
+  <si>
+    <t>['73', '90']</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP192"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1570,7 +1576,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1982,7 +1988,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2394,7 +2400,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2475,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2600,7 +2606,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -3296,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3424,7 +3430,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3630,7 +3636,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3914,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
         <v>0.88</v>
@@ -4042,7 +4048,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4329,7 +4335,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ15">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4454,7 +4460,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4866,7 +4872,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5072,7 +5078,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q19">
         <v>4.75</v>
@@ -6102,7 +6108,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6308,7 +6314,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6386,10 +6392,10 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR25">
         <v>1.81</v>
@@ -6514,7 +6520,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6720,7 +6726,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -7544,7 +7550,7 @@
         <v>85</v>
       </c>
       <c r="P31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7750,7 +7756,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q32">
         <v>1.83</v>
@@ -8034,7 +8040,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ33">
         <v>1.13</v>
@@ -8162,7 +8168,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8652,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ36">
         <v>0.5600000000000001</v>
@@ -9192,7 +9198,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q39">
         <v>1.83</v>
@@ -9479,7 +9485,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ40">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9604,7 +9610,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9810,7 +9816,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9888,7 +9894,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ42">
         <v>0.8100000000000001</v>
@@ -10016,7 +10022,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10840,7 +10846,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -11046,7 +11052,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -11458,7 +11464,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11664,7 +11670,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11870,7 +11876,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12282,7 +12288,7 @@
         <v>114</v>
       </c>
       <c r="P54" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q54">
         <v>9.5</v>
@@ -12694,7 +12700,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -12981,7 +12987,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13518,7 +13524,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13724,7 +13730,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q61">
         <v>2.88</v>
@@ -13802,7 +13808,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -14136,7 +14142,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -14342,7 +14348,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14754,7 +14760,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -15372,7 +15378,7 @@
         <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15578,7 +15584,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q70">
         <v>9</v>
@@ -15659,7 +15665,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ70">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR70">
         <v>0.96</v>
@@ -15862,7 +15868,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ71">
         <v>1.19</v>
@@ -15990,7 +15996,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -16196,7 +16202,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q73">
         <v>1.73</v>
@@ -16483,7 +16489,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ74">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR74">
         <v>1.22</v>
@@ -16608,7 +16614,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -17020,7 +17026,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17226,7 +17232,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17432,7 +17438,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17844,7 +17850,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -18256,7 +18262,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18462,7 +18468,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -18668,7 +18674,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18749,7 +18755,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ85">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR85">
         <v>1.4</v>
@@ -19698,7 +19704,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -20110,7 +20116,7 @@
         <v>150</v>
       </c>
       <c r="P92" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20522,7 +20528,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20934,7 +20940,7 @@
         <v>153</v>
       </c>
       <c r="P96" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -21758,7 +21764,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q100">
         <v>1.73</v>
@@ -21839,7 +21845,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ100">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR100">
         <v>2.55</v>
@@ -21964,7 +21970,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q101">
         <v>3.4</v>
@@ -22170,7 +22176,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22376,7 +22382,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22866,7 +22872,7 @@
         <v>2.25</v>
       </c>
       <c r="AP105">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ105">
         <v>2.25</v>
@@ -23200,7 +23206,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23406,7 +23412,7 @@
         <v>163</v>
       </c>
       <c r="P108" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q108">
         <v>2.75</v>
@@ -23818,7 +23824,7 @@
         <v>165</v>
       </c>
       <c r="P110" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -23896,7 +23902,7 @@
         <v>1.22</v>
       </c>
       <c r="AP110">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ110">
         <v>1.38</v>
@@ -24230,7 +24236,7 @@
         <v>167</v>
       </c>
       <c r="P112" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q112">
         <v>1.4</v>
@@ -24436,7 +24442,7 @@
         <v>168</v>
       </c>
       <c r="P113" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24517,7 +24523,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ113">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR113">
         <v>1.49</v>
@@ -24642,7 +24648,7 @@
         <v>98</v>
       </c>
       <c r="P114" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -24848,7 +24854,7 @@
         <v>85</v>
       </c>
       <c r="P115" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -25260,7 +25266,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25466,7 +25472,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -26084,7 +26090,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q121">
         <v>2.1</v>
@@ -26702,7 +26708,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q124">
         <v>1.44</v>
@@ -27320,7 +27326,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q127">
         <v>2.3</v>
@@ -27398,7 +27404,7 @@
         <v>1.8</v>
       </c>
       <c r="AP127">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ127">
         <v>1.56</v>
@@ -27526,7 +27532,7 @@
         <v>139</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27938,7 +27944,7 @@
         <v>85</v>
       </c>
       <c r="P130" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -28144,7 +28150,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -28225,7 +28231,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ131">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR131">
         <v>1.63</v>
@@ -28556,7 +28562,7 @@
         <v>85</v>
       </c>
       <c r="P133" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q133">
         <v>2.75</v>
@@ -28762,7 +28768,7 @@
         <v>179</v>
       </c>
       <c r="P134" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q134">
         <v>4.75</v>
@@ -28843,7 +28849,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ134">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR134">
         <v>1.5</v>
@@ -28968,7 +28974,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29174,7 +29180,7 @@
         <v>120</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q136">
         <v>3.75</v>
@@ -29380,7 +29386,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q137">
         <v>2.38</v>
@@ -29792,7 +29798,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q139">
         <v>2.7</v>
@@ -29870,7 +29876,7 @@
         <v>1.91</v>
       </c>
       <c r="AP139">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ139">
         <v>1.56</v>
@@ -30616,7 +30622,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>2.1</v>
@@ -30822,7 +30828,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q144">
         <v>1.53</v>
@@ -31315,7 +31321,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ146">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR146">
         <v>2.6</v>
@@ -32264,7 +32270,7 @@
         <v>85</v>
       </c>
       <c r="P151" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -32470,7 +32476,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -32548,7 +32554,7 @@
         <v>2.25</v>
       </c>
       <c r="AP152">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ152">
         <v>2.25</v>
@@ -33088,7 +33094,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33169,7 +33175,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ155">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR155">
         <v>1.35</v>
@@ -33294,7 +33300,7 @@
         <v>85</v>
       </c>
       <c r="P156" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q156">
         <v>2.88</v>
@@ -33500,7 +33506,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q157">
         <v>2.63</v>
@@ -33706,7 +33712,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34118,7 +34124,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q160">
         <v>2.88</v>
@@ -34530,7 +34536,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -34736,7 +34742,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q163">
         <v>2.2</v>
@@ -35148,7 +35154,7 @@
         <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q165">
         <v>1.83</v>
@@ -36050,7 +36056,7 @@
         <v>1.57</v>
       </c>
       <c r="AP169">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ169">
         <v>1.5</v>
@@ -36384,7 +36390,7 @@
         <v>97</v>
       </c>
       <c r="P171" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36465,7 +36471,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ171">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR171">
         <v>1.54</v>
@@ -36590,7 +36596,7 @@
         <v>206</v>
       </c>
       <c r="P172" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -37002,7 +37008,7 @@
         <v>85</v>
       </c>
       <c r="P174" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q174">
         <v>6.75</v>
@@ -37208,7 +37214,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37414,7 +37420,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q176">
         <v>2.05</v>
@@ -37620,7 +37626,7 @@
         <v>134</v>
       </c>
       <c r="P177" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q177">
         <v>3.64</v>
@@ -38316,7 +38322,7 @@
         <v>1.21</v>
       </c>
       <c r="AP180">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ180">
         <v>1.13</v>
@@ -38856,7 +38862,7 @@
         <v>212</v>
       </c>
       <c r="P183" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q183">
         <v>1.5</v>
@@ -39062,7 +39068,7 @@
         <v>213</v>
       </c>
       <c r="P184" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q184">
         <v>1.91</v>
@@ -39268,7 +39274,7 @@
         <v>214</v>
       </c>
       <c r="P185" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -39474,7 +39480,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q186">
         <v>2.25</v>
@@ -39680,7 +39686,7 @@
         <v>85</v>
       </c>
       <c r="P187" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -40298,7 +40304,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q190">
         <v>6.5</v>
@@ -40504,7 +40510,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -40866,6 +40872,212 @@
         <v>0</v>
       </c>
       <c r="BP192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7817223</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45766.375</v>
+      </c>
+      <c r="F193">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>77</v>
+      </c>
+      <c r="H193" t="s">
+        <v>76</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>3</v>
+      </c>
+      <c r="M193">
+        <v>2</v>
+      </c>
+      <c r="N193">
+        <v>5</v>
+      </c>
+      <c r="O193" t="s">
+        <v>221</v>
+      </c>
+      <c r="P193" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q193">
+        <v>3.4</v>
+      </c>
+      <c r="R193">
+        <v>2.1</v>
+      </c>
+      <c r="S193">
+        <v>3</v>
+      </c>
+      <c r="T193">
+        <v>1.44</v>
+      </c>
+      <c r="U193">
+        <v>2.63</v>
+      </c>
+      <c r="V193">
+        <v>3</v>
+      </c>
+      <c r="W193">
+        <v>1.36</v>
+      </c>
+      <c r="X193">
+        <v>7</v>
+      </c>
+      <c r="Y193">
+        <v>1.08</v>
+      </c>
+      <c r="Z193">
+        <v>2.87</v>
+      </c>
+      <c r="AA193">
+        <v>3.41</v>
+      </c>
+      <c r="AB193">
+        <v>2.34</v>
+      </c>
+      <c r="AC193">
+        <v>1.05</v>
+      </c>
+      <c r="AD193">
+        <v>8</v>
+      </c>
+      <c r="AE193">
+        <v>1.27</v>
+      </c>
+      <c r="AF193">
+        <v>3.14</v>
+      </c>
+      <c r="AG193">
+        <v>1.94</v>
+      </c>
+      <c r="AH193">
+        <v>1.76</v>
+      </c>
+      <c r="AI193">
+        <v>1.8</v>
+      </c>
+      <c r="AJ193">
+        <v>1.91</v>
+      </c>
+      <c r="AK193">
+        <v>1.53</v>
+      </c>
+      <c r="AL193">
+        <v>1.28</v>
+      </c>
+      <c r="AM193">
+        <v>1.36</v>
+      </c>
+      <c r="AN193">
+        <v>1.27</v>
+      </c>
+      <c r="AO193">
+        <v>1.93</v>
+      </c>
+      <c r="AP193">
+        <v>1.38</v>
+      </c>
+      <c r="AQ193">
+        <v>1.81</v>
+      </c>
+      <c r="AR193">
+        <v>1.29</v>
+      </c>
+      <c r="AS193">
+        <v>1.44</v>
+      </c>
+      <c r="AT193">
+        <v>2.73</v>
+      </c>
+      <c r="AU193">
+        <v>7</v>
+      </c>
+      <c r="AV193">
+        <v>6</v>
+      </c>
+      <c r="AW193">
+        <v>5</v>
+      </c>
+      <c r="AX193">
+        <v>3</v>
+      </c>
+      <c r="AY193">
+        <v>12</v>
+      </c>
+      <c r="AZ193">
+        <v>9</v>
+      </c>
+      <c r="BA193">
+        <v>4</v>
+      </c>
+      <c r="BB193">
+        <v>3</v>
+      </c>
+      <c r="BC193">
+        <v>7</v>
+      </c>
+      <c r="BD193">
+        <v>0</v>
+      </c>
+      <c r="BE193">
+        <v>0</v>
+      </c>
+      <c r="BF193">
+        <v>0</v>
+      </c>
+      <c r="BG193">
+        <v>0</v>
+      </c>
+      <c r="BH193">
+        <v>0</v>
+      </c>
+      <c r="BI193">
+        <v>0</v>
+      </c>
+      <c r="BJ193">
+        <v>0</v>
+      </c>
+      <c r="BK193">
+        <v>0</v>
+      </c>
+      <c r="BL193">
+        <v>0</v>
+      </c>
+      <c r="BM193">
+        <v>0</v>
+      </c>
+      <c r="BN193">
+        <v>0</v>
+      </c>
+      <c r="BO193">
+        <v>0</v>
+      </c>
+      <c r="BP193">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="314">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -676,6 +676,9 @@
     <t>['11', '20', '32', '70', '81']</t>
   </si>
   <si>
+    <t>['27', '31', '43', '83']</t>
+  </si>
+  <si>
     <t>['45', '50', '86']</t>
   </si>
   <si>
@@ -1314,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP192"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1573,7 +1576,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1985,7 +1988,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2063,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4">
         <v>1.13</v>
@@ -2397,7 +2400,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -3015,7 +3018,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -3093,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>2.25</v>
@@ -3302,7 +3305,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ10">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3427,7 +3430,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3633,7 +3636,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3839,7 +3842,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -4457,7 +4460,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -5281,7 +5284,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5359,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20">
         <v>1.19</v>
@@ -5693,7 +5696,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5774,7 +5777,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ22">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR22">
         <v>1.28</v>
@@ -5980,7 +5983,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ23">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR23">
         <v>1.19</v>
@@ -6105,7 +6108,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q24">
         <v>5.5</v>
@@ -6311,7 +6314,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6517,7 +6520,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6723,7 +6726,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -7547,7 +7550,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7753,7 +7756,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q32">
         <v>13</v>
@@ -8165,7 +8168,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -9067,7 +9070,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38">
         <v>1.5</v>
@@ -9195,7 +9198,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q39">
         <v>1.83</v>
@@ -9607,7 +9610,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9688,7 +9691,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ41">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9813,7 +9816,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -10019,7 +10022,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -11049,7 +11052,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q48">
         <v>1.67</v>
@@ -11255,7 +11258,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q49">
         <v>2.25</v>
@@ -11336,7 +11339,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ49">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR49">
         <v>1.34</v>
@@ -11461,7 +11464,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11667,7 +11670,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11873,7 +11876,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11951,7 +11954,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
         <v>1.56</v>
@@ -12285,7 +12288,7 @@
         <v>113</v>
       </c>
       <c r="P54" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q54">
         <v>9.5</v>
@@ -12697,7 +12700,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -12981,7 +12984,7 @@
         <v>2.5</v>
       </c>
       <c r="AP57">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
         <v>1.81</v>
@@ -13727,7 +13730,7 @@
         <v>126</v>
       </c>
       <c r="P61" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -13933,7 +13936,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14139,7 +14142,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -14345,7 +14348,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14551,7 +14554,7 @@
         <v>85</v>
       </c>
       <c r="P65" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -14963,7 +14966,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15044,7 +15047,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ67">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR67">
         <v>1.2</v>
@@ -15169,7 +15172,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15247,7 +15250,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ68">
         <v>0.9399999999999999</v>
@@ -15787,7 +15790,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16611,7 +16614,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16817,7 +16820,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -17023,7 +17026,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17104,7 +17107,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ77">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -17229,7 +17232,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17307,7 +17310,7 @@
         <v>1.14</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ78">
         <v>1.38</v>
@@ -17435,7 +17438,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17847,7 +17850,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -18259,7 +18262,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18465,7 +18468,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -18671,7 +18674,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -19701,7 +19704,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -19782,7 +19785,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ90">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR90">
         <v>0.87</v>
@@ -19907,7 +19910,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20525,7 +20528,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20937,7 +20940,7 @@
         <v>153</v>
       </c>
       <c r="P96" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -21427,7 +21430,7 @@
         <v>0.5</v>
       </c>
       <c r="AP98">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21761,7 +21764,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q100">
         <v>1.73</v>
@@ -21967,7 +21970,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q101">
         <v>3.4</v>
@@ -22173,7 +22176,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22379,7 +22382,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22460,7 +22463,7 @@
         <v>1</v>
       </c>
       <c r="AQ103">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR103">
         <v>1.32</v>
@@ -22869,7 +22872,7 @@
         <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ105">
         <v>0.5600000000000001</v>
@@ -23203,7 +23206,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23615,7 +23618,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q109">
         <v>2.75</v>
@@ -24027,7 +24030,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24233,7 +24236,7 @@
         <v>167</v>
       </c>
       <c r="P112" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q112">
         <v>1.4</v>
@@ -24439,7 +24442,7 @@
         <v>168</v>
       </c>
       <c r="P113" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24645,7 +24648,7 @@
         <v>98</v>
       </c>
       <c r="P114" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -24851,7 +24854,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25263,7 +25266,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -25469,7 +25472,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -26087,7 +26090,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q121">
         <v>2.1</v>
@@ -26577,10 +26580,10 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ123">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR123">
         <v>1.73</v>
@@ -27117,7 +27120,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q126">
         <v>1.44</v>
@@ -27198,7 +27201,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ126">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR126">
         <v>2.58</v>
@@ -27323,7 +27326,7 @@
         <v>139</v>
       </c>
       <c r="P127" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27529,7 +27532,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q128">
         <v>2.3</v>
@@ -27735,7 +27738,7 @@
         <v>85</v>
       </c>
       <c r="P129" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q129">
         <v>5.5</v>
@@ -28147,7 +28150,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -28559,7 +28562,7 @@
         <v>85</v>
       </c>
       <c r="P133" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q133">
         <v>2.75</v>
@@ -28765,7 +28768,7 @@
         <v>179</v>
       </c>
       <c r="P134" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q134">
         <v>4.75</v>
@@ -28971,7 +28974,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29177,7 +29180,7 @@
         <v>120</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q136">
         <v>3.75</v>
@@ -29383,7 +29386,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q137">
         <v>2.38</v>
@@ -29667,7 +29670,7 @@
         <v>1.09</v>
       </c>
       <c r="AP138">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ138">
         <v>1.19</v>
@@ -29795,7 +29798,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q139">
         <v>2.7</v>
@@ -30288,7 +30291,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ141">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR141">
         <v>1.54</v>
@@ -30413,7 +30416,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q142">
         <v>2.1</v>
@@ -30619,7 +30622,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q143">
         <v>1.53</v>
@@ -31109,7 +31112,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ145">
         <v>0.5600000000000001</v>
@@ -32267,7 +32270,7 @@
         <v>85</v>
       </c>
       <c r="P151" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -32679,7 +32682,7 @@
         <v>85</v>
       </c>
       <c r="P153" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -32966,7 +32969,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ154">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR154">
         <v>1.1</v>
@@ -33091,7 +33094,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33297,7 +33300,7 @@
         <v>85</v>
       </c>
       <c r="P156" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q156">
         <v>2.88</v>
@@ -33503,7 +33506,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q157">
         <v>2.63</v>
@@ -33581,7 +33584,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ157">
         <v>1</v>
@@ -33709,7 +33712,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34121,7 +34124,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q160">
         <v>2.88</v>
@@ -34533,7 +34536,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -34739,7 +34742,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q163">
         <v>2.2</v>
@@ -35357,7 +35360,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q166">
         <v>1.83</v>
@@ -35644,7 +35647,7 @@
         <v>1</v>
       </c>
       <c r="AQ167">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR167">
         <v>1.48</v>
@@ -36387,7 +36390,7 @@
         <v>99</v>
       </c>
       <c r="P171" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36593,7 +36596,7 @@
         <v>206</v>
       </c>
       <c r="P172" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -37005,7 +37008,7 @@
         <v>207</v>
       </c>
       <c r="P174" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37083,7 +37086,7 @@
         <v>1.36</v>
       </c>
       <c r="AP174">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ174">
         <v>1.38</v>
@@ -37211,7 +37214,7 @@
         <v>85</v>
       </c>
       <c r="P175" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q175">
         <v>6.75</v>
@@ -37417,7 +37420,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q176">
         <v>2.05</v>
@@ -37498,7 +37501,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ176">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR176">
         <v>1.49</v>
@@ -37623,7 +37626,7 @@
         <v>134</v>
       </c>
       <c r="P177" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q177">
         <v>3.64</v>
@@ -38859,7 +38862,7 @@
         <v>212</v>
       </c>
       <c r="P183" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q183">
         <v>1.5</v>
@@ -39065,7 +39068,7 @@
         <v>213</v>
       </c>
       <c r="P184" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q184">
         <v>1.91</v>
@@ -39271,7 +39274,7 @@
         <v>214</v>
       </c>
       <c r="P185" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -39477,7 +39480,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q186">
         <v>2.25</v>
@@ -39683,7 +39686,7 @@
         <v>85</v>
       </c>
       <c r="P187" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -40095,7 +40098,7 @@
         <v>217</v>
       </c>
       <c r="P189" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q189">
         <v>6.5</v>
@@ -40301,7 +40304,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -40671,7 +40674,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>7817223</v>
+        <v>7817228</v>
       </c>
       <c r="C192" t="s">
         <v>68</v>
@@ -40680,195 +40683,401 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45766.375</v>
+        <v>45766.36458333334</v>
       </c>
       <c r="F192">
         <v>10</v>
       </c>
       <c r="G192" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H192" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J192">
         <v>0</v>
       </c>
       <c r="K192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N192">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O192" t="s">
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>312</v>
+        <v>85</v>
       </c>
       <c r="Q192">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="R192">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="S192">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="T192">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="U192">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="V192">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="W192">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="X192">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y192">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="Z192">
-        <v>2.87</v>
+        <v>2.16</v>
       </c>
       <c r="AA192">
-        <v>3.41</v>
+        <v>3.51</v>
       </c>
       <c r="AB192">
-        <v>2.34</v>
+        <v>3.11</v>
       </c>
       <c r="AC192">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD192">
+        <v>13</v>
+      </c>
+      <c r="AE192">
+        <v>1.1</v>
+      </c>
+      <c r="AF192">
+        <v>5.2</v>
+      </c>
+      <c r="AG192">
+        <v>1.53</v>
+      </c>
+      <c r="AH192">
+        <v>2.35</v>
+      </c>
+      <c r="AI192">
+        <v>1.53</v>
+      </c>
+      <c r="AJ192">
+        <v>2.38</v>
+      </c>
+      <c r="AK192">
+        <v>1.27</v>
+      </c>
+      <c r="AL192">
+        <v>1.22</v>
+      </c>
+      <c r="AM192">
+        <v>1.77</v>
+      </c>
+      <c r="AN192">
+        <v>1.67</v>
+      </c>
+      <c r="AO192">
+        <v>0.87</v>
+      </c>
+      <c r="AP192">
+        <v>1.75</v>
+      </c>
+      <c r="AQ192">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR192">
+        <v>1.84</v>
+      </c>
+      <c r="AS192">
+        <v>1.4</v>
+      </c>
+      <c r="AT192">
+        <v>3.24</v>
+      </c>
+      <c r="AU192">
         <v>8</v>
       </c>
-      <c r="AE192">
-        <v>1.27</v>
-      </c>
-      <c r="AF192">
-        <v>3.14</v>
-      </c>
-      <c r="AG192">
-        <v>1.94</v>
-      </c>
-      <c r="AH192">
-        <v>1.76</v>
-      </c>
-      <c r="AI192">
-        <v>1.8</v>
-      </c>
-      <c r="AJ192">
-        <v>1.91</v>
-      </c>
-      <c r="AK192">
-        <v>1.53</v>
-      </c>
-      <c r="AL192">
-        <v>1.28</v>
-      </c>
-      <c r="AM192">
-        <v>1.36</v>
-      </c>
-      <c r="AN192">
-        <v>1.27</v>
-      </c>
-      <c r="AO192">
-        <v>1.93</v>
-      </c>
-      <c r="AP192">
-        <v>1.38</v>
-      </c>
-      <c r="AQ192">
-        <v>1.81</v>
-      </c>
-      <c r="AR192">
-        <v>1.29</v>
-      </c>
-      <c r="AS192">
-        <v>1.44</v>
-      </c>
-      <c r="AT192">
-        <v>2.73</v>
-      </c>
-      <c r="AU192">
-        <v>7</v>
-      </c>
       <c r="AV192">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW192">
         <v>5</v>
       </c>
       <c r="AX192">
+        <v>7</v>
+      </c>
+      <c r="AY192">
+        <v>13</v>
+      </c>
+      <c r="AZ192">
+        <v>12</v>
+      </c>
+      <c r="BA192">
+        <v>7</v>
+      </c>
+      <c r="BB192">
+        <v>5</v>
+      </c>
+      <c r="BC192">
+        <v>12</v>
+      </c>
+      <c r="BD192">
+        <v>0</v>
+      </c>
+      <c r="BE192">
+        <v>0</v>
+      </c>
+      <c r="BF192">
+        <v>0</v>
+      </c>
+      <c r="BG192">
+        <v>0</v>
+      </c>
+      <c r="BH192">
+        <v>0</v>
+      </c>
+      <c r="BI192">
+        <v>0</v>
+      </c>
+      <c r="BJ192">
+        <v>0</v>
+      </c>
+      <c r="BK192">
+        <v>0</v>
+      </c>
+      <c r="BL192">
+        <v>0</v>
+      </c>
+      <c r="BM192">
+        <v>0</v>
+      </c>
+      <c r="BN192">
+        <v>0</v>
+      </c>
+      <c r="BO192">
+        <v>0</v>
+      </c>
+      <c r="BP192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7817223</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45766.375</v>
+      </c>
+      <c r="F193">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>75</v>
+      </c>
+      <c r="H193" t="s">
+        <v>77</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
         <v>3</v>
       </c>
-      <c r="AY192">
+      <c r="M193">
+        <v>2</v>
+      </c>
+      <c r="N193">
+        <v>5</v>
+      </c>
+      <c r="O193" t="s">
+        <v>221</v>
+      </c>
+      <c r="P193" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q193">
+        <v>3.4</v>
+      </c>
+      <c r="R193">
+        <v>2.1</v>
+      </c>
+      <c r="S193">
+        <v>3</v>
+      </c>
+      <c r="T193">
+        <v>1.44</v>
+      </c>
+      <c r="U193">
+        <v>2.63</v>
+      </c>
+      <c r="V193">
+        <v>3</v>
+      </c>
+      <c r="W193">
+        <v>1.36</v>
+      </c>
+      <c r="X193">
+        <v>7</v>
+      </c>
+      <c r="Y193">
+        <v>1.08</v>
+      </c>
+      <c r="Z193">
+        <v>2.87</v>
+      </c>
+      <c r="AA193">
+        <v>3.41</v>
+      </c>
+      <c r="AB193">
+        <v>2.34</v>
+      </c>
+      <c r="AC193">
+        <v>1.05</v>
+      </c>
+      <c r="AD193">
+        <v>8</v>
+      </c>
+      <c r="AE193">
+        <v>1.27</v>
+      </c>
+      <c r="AF193">
+        <v>3.14</v>
+      </c>
+      <c r="AG193">
+        <v>1.94</v>
+      </c>
+      <c r="AH193">
+        <v>1.76</v>
+      </c>
+      <c r="AI193">
+        <v>1.8</v>
+      </c>
+      <c r="AJ193">
+        <v>1.91</v>
+      </c>
+      <c r="AK193">
+        <v>1.53</v>
+      </c>
+      <c r="AL193">
+        <v>1.28</v>
+      </c>
+      <c r="AM193">
+        <v>1.36</v>
+      </c>
+      <c r="AN193">
+        <v>1.27</v>
+      </c>
+      <c r="AO193">
+        <v>1.93</v>
+      </c>
+      <c r="AP193">
+        <v>1.38</v>
+      </c>
+      <c r="AQ193">
+        <v>1.81</v>
+      </c>
+      <c r="AR193">
+        <v>1.29</v>
+      </c>
+      <c r="AS193">
+        <v>1.44</v>
+      </c>
+      <c r="AT193">
+        <v>2.73</v>
+      </c>
+      <c r="AU193">
+        <v>7</v>
+      </c>
+      <c r="AV193">
+        <v>6</v>
+      </c>
+      <c r="AW193">
+        <v>5</v>
+      </c>
+      <c r="AX193">
+        <v>3</v>
+      </c>
+      <c r="AY193">
         <v>12</v>
       </c>
-      <c r="AZ192">
+      <c r="AZ193">
         <v>9</v>
       </c>
-      <c r="BA192">
+      <c r="BA193">
         <v>4</v>
       </c>
-      <c r="BB192">
+      <c r="BB193">
         <v>3</v>
       </c>
-      <c r="BC192">
+      <c r="BC193">
         <v>7</v>
       </c>
-      <c r="BD192">
-        <v>0</v>
-      </c>
-      <c r="BE192">
-        <v>0</v>
-      </c>
-      <c r="BF192">
-        <v>0</v>
-      </c>
-      <c r="BG192">
-        <v>0</v>
-      </c>
-      <c r="BH192">
-        <v>0</v>
-      </c>
-      <c r="BI192">
-        <v>0</v>
-      </c>
-      <c r="BJ192">
-        <v>0</v>
-      </c>
-      <c r="BK192">
-        <v>0</v>
-      </c>
-      <c r="BL192">
-        <v>0</v>
-      </c>
-      <c r="BM192">
-        <v>0</v>
-      </c>
-      <c r="BN192">
-        <v>0</v>
-      </c>
-      <c r="BO192">
-        <v>0</v>
-      </c>
-      <c r="BP192">
+      <c r="BD193">
+        <v>0</v>
+      </c>
+      <c r="BE193">
+        <v>0</v>
+      </c>
+      <c r="BF193">
+        <v>0</v>
+      </c>
+      <c r="BG193">
+        <v>0</v>
+      </c>
+      <c r="BH193">
+        <v>0</v>
+      </c>
+      <c r="BI193">
+        <v>0</v>
+      </c>
+      <c r="BJ193">
+        <v>0</v>
+      </c>
+      <c r="BK193">
+        <v>0</v>
+      </c>
+      <c r="BL193">
+        <v>0</v>
+      </c>
+      <c r="BM193">
+        <v>0</v>
+      </c>
+      <c r="BN193">
+        <v>0</v>
+      </c>
+      <c r="BO193">
+        <v>0</v>
+      </c>
+      <c r="BP193">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,6 +682,12 @@
     <t>['45', '50', '86']</t>
   </si>
   <si>
+    <t>['23', '45+2', '46', '58', '73']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -956,6 +962,9 @@
   </si>
   <si>
     <t>['73', '90']</t>
+  </si>
+  <si>
+    <t>['6', '86']</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1576,7 +1585,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1863,7 +1872,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ3">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1988,7 +1997,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2400,7 +2409,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2890,10 +2899,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ8">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3018,7 +3027,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -3430,7 +3439,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3636,7 +3645,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3714,7 +3723,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -3842,7 +3851,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -4460,7 +4469,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4747,7 +4756,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR17">
         <v>0.68</v>
@@ -4950,10 +4959,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ18">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR18">
         <v>1.22</v>
@@ -5156,7 +5165,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -5284,7 +5293,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5696,7 +5705,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -6108,7 +6117,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q24">
         <v>5.5</v>
@@ -6314,7 +6323,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q25">
         <v>3.2</v>
@@ -6520,7 +6529,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6598,7 +6607,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ26">
         <v>1.13</v>
@@ -6726,7 +6735,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -7550,7 +7559,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7631,7 +7640,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ31">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR31">
         <v>1.41</v>
@@ -7756,7 +7765,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q32">
         <v>13</v>
@@ -8168,7 +8177,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8867,7 +8876,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ37">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR37">
         <v>3.26</v>
@@ -9198,7 +9207,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q39">
         <v>1.83</v>
@@ -9276,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9610,7 +9619,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9816,7 +9825,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -10022,7 +10031,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10718,7 +10727,7 @@
         <v>2.33</v>
       </c>
       <c r="AP46">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ46">
         <v>1.19</v>
@@ -11052,7 +11061,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q48">
         <v>1.67</v>
@@ -11133,7 +11142,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ48">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR48">
         <v>3.27</v>
@@ -11258,7 +11267,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q49">
         <v>2.25</v>
@@ -11464,7 +11473,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11545,7 +11554,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ50">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR50">
         <v>1.21</v>
@@ -11670,7 +11679,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11876,7 +11885,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12288,7 +12297,7 @@
         <v>113</v>
       </c>
       <c r="P54" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q54">
         <v>9.5</v>
@@ -12700,7 +12709,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -12781,7 +12790,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR56">
         <v>1.02</v>
@@ -13190,7 +13199,7 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ58">
         <v>1.19</v>
@@ -13605,7 +13614,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ60">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR60">
         <v>2.07</v>
@@ -13730,7 +13739,7 @@
         <v>126</v>
       </c>
       <c r="P61" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q61">
         <v>2.3</v>
@@ -13936,7 +13945,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14142,7 +14151,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -14220,7 +14229,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ63">
         <v>1.56</v>
@@ -14348,7 +14357,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14554,7 +14563,7 @@
         <v>85</v>
       </c>
       <c r="P65" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -14966,7 +14975,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -15044,7 +15053,7 @@
         <v>1.2</v>
       </c>
       <c r="AP67">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ67">
         <v>0.8100000000000001</v>
@@ -15172,7 +15181,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15253,7 +15262,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ68">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR68">
         <v>1.56</v>
@@ -15790,7 +15799,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16280,7 +16289,7 @@
         <v>2.67</v>
       </c>
       <c r="AP73">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ73">
         <v>1.81</v>
@@ -16614,7 +16623,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16695,7 +16704,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ75">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR75">
         <v>1.8</v>
@@ -16820,7 +16829,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -16898,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ76">
         <v>0.5600000000000001</v>
@@ -17026,7 +17035,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17104,7 +17113,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ77">
         <v>0.8100000000000001</v>
@@ -17232,7 +17241,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17313,7 +17322,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ78">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17438,7 +17447,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17519,7 +17528,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ79">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR79">
         <v>1.99</v>
@@ -17850,7 +17859,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -18262,7 +18271,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18468,7 +18477,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -18674,7 +18683,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18752,7 +18761,7 @@
         <v>2.43</v>
       </c>
       <c r="AP85">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ85">
         <v>1.81</v>
@@ -19373,7 +19382,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ88">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR88">
         <v>1.83</v>
@@ -19704,7 +19713,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -19910,7 +19919,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20528,7 +20537,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20606,10 +20615,10 @@
         <v>1.29</v>
       </c>
       <c r="AP94">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ94">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR94">
         <v>1.18</v>
@@ -20940,7 +20949,7 @@
         <v>153</v>
       </c>
       <c r="P96" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -21224,7 +21233,7 @@
         <v>0.38</v>
       </c>
       <c r="AP97">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ97">
         <v>0.5600000000000001</v>
@@ -21639,7 +21648,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ99">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR99">
         <v>1.39</v>
@@ -21764,7 +21773,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q100">
         <v>1.73</v>
@@ -21970,7 +21979,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q101">
         <v>3.4</v>
@@ -22176,7 +22185,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22382,7 +22391,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -23206,7 +23215,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23490,7 +23499,7 @@
         <v>0.88</v>
       </c>
       <c r="AP108">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ108">
         <v>0.88</v>
@@ -23618,7 +23627,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q109">
         <v>2.75</v>
@@ -23696,10 +23705,10 @@
         <v>1.38</v>
       </c>
       <c r="AP109">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ109">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR109">
         <v>1.33</v>
@@ -24030,7 +24039,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24111,7 +24120,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ111">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR111">
         <v>1.27</v>
@@ -24236,7 +24245,7 @@
         <v>167</v>
       </c>
       <c r="P112" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q112">
         <v>1.4</v>
@@ -24442,7 +24451,7 @@
         <v>168</v>
       </c>
       <c r="P113" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24648,7 +24657,7 @@
         <v>98</v>
       </c>
       <c r="P114" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -24726,7 +24735,7 @@
         <v>0.38</v>
       </c>
       <c r="AP114">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -24854,7 +24863,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -25141,7 +25150,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ116">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR116">
         <v>1.04</v>
@@ -25266,7 +25275,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -25344,7 +25353,7 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ117">
         <v>2.25</v>
@@ -25472,7 +25481,7 @@
         <v>85</v>
       </c>
       <c r="P118" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q118">
         <v>3.75</v>
@@ -25759,7 +25768,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR119">
         <v>1.37</v>
@@ -26090,7 +26099,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q121">
         <v>2.1</v>
@@ -27120,7 +27129,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q126">
         <v>1.44</v>
@@ -27326,7 +27335,7 @@
         <v>139</v>
       </c>
       <c r="P127" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27532,7 +27541,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q128">
         <v>2.3</v>
@@ -27738,7 +27747,7 @@
         <v>85</v>
       </c>
       <c r="P129" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q129">
         <v>5.5</v>
@@ -27816,7 +27825,7 @@
         <v>2.1</v>
       </c>
       <c r="AP129">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ129">
         <v>2.25</v>
@@ -28150,7 +28159,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -28434,7 +28443,7 @@
         <v>0.7</v>
       </c>
       <c r="AP132">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ132">
         <v>0.88</v>
@@ -28562,7 +28571,7 @@
         <v>85</v>
       </c>
       <c r="P133" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q133">
         <v>2.75</v>
@@ -28643,7 +28652,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ133">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR133">
         <v>1.54</v>
@@ -28768,7 +28777,7 @@
         <v>179</v>
       </c>
       <c r="P134" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q134">
         <v>4.75</v>
@@ -28846,7 +28855,7 @@
         <v>2.36</v>
       </c>
       <c r="AP134">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ134">
         <v>1.81</v>
@@ -28974,7 +28983,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29180,7 +29189,7 @@
         <v>120</v>
       </c>
       <c r="P136" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q136">
         <v>3.75</v>
@@ -29261,7 +29270,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ136">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR136">
         <v>1.08</v>
@@ -29386,7 +29395,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q137">
         <v>2.38</v>
@@ -29467,7 +29476,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ137">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR137">
         <v>1.51</v>
@@ -29798,7 +29807,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q139">
         <v>2.7</v>
@@ -30416,7 +30425,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q142">
         <v>2.1</v>
@@ -30622,7 +30631,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q143">
         <v>1.53</v>
@@ -31527,7 +31536,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ147">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR147">
         <v>1.56</v>
@@ -31730,7 +31739,7 @@
         <v>1.75</v>
       </c>
       <c r="AP148">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ148">
         <v>1.5</v>
@@ -31936,10 +31945,10 @@
         <v>1.25</v>
       </c>
       <c r="AP149">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ149">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR149">
         <v>1.47</v>
@@ -32270,7 +32279,7 @@
         <v>85</v>
       </c>
       <c r="P151" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -32348,7 +32357,7 @@
         <v>2.18</v>
       </c>
       <c r="AP151">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ151">
         <v>2.25</v>
@@ -32682,7 +32691,7 @@
         <v>85</v>
       </c>
       <c r="P153" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -33094,7 +33103,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33172,7 +33181,7 @@
         <v>2</v>
       </c>
       <c r="AP155">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ155">
         <v>1.81</v>
@@ -33300,7 +33309,7 @@
         <v>85</v>
       </c>
       <c r="P156" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q156">
         <v>2.88</v>
@@ -33506,7 +33515,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q157">
         <v>2.63</v>
@@ -33712,7 +33721,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33793,7 +33802,7 @@
         <v>1</v>
       </c>
       <c r="AQ158">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR158">
         <v>1.4</v>
@@ -34124,7 +34133,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q160">
         <v>2.88</v>
@@ -34536,7 +34545,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -34614,7 +34623,7 @@
         <v>2</v>
       </c>
       <c r="AP162">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ162">
         <v>1.56</v>
@@ -34742,7 +34751,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q163">
         <v>2.2</v>
@@ -34823,7 +34832,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ163">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR163">
         <v>1.65</v>
@@ -35360,7 +35369,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q166">
         <v>1.83</v>
@@ -36262,10 +36271,10 @@
         <v>1.07</v>
       </c>
       <c r="AP170">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ170">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR170">
         <v>1.34</v>
@@ -36390,7 +36399,7 @@
         <v>99</v>
       </c>
       <c r="P171" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36596,7 +36605,7 @@
         <v>206</v>
       </c>
       <c r="P172" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -37008,7 +37017,7 @@
         <v>207</v>
       </c>
       <c r="P174" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37089,7 +37098,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ174">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR174">
         <v>1.86</v>
@@ -37214,7 +37223,7 @@
         <v>85</v>
       </c>
       <c r="P175" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q175">
         <v>6.75</v>
@@ -37292,7 +37301,7 @@
         <v>2.31</v>
       </c>
       <c r="AP175">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ175">
         <v>2.25</v>
@@ -37420,7 +37429,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q176">
         <v>2.05</v>
@@ -37626,7 +37635,7 @@
         <v>134</v>
       </c>
       <c r="P177" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q177">
         <v>3.64</v>
@@ -38734,7 +38743,7 @@
         <v>1.53</v>
       </c>
       <c r="AP182">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ182">
         <v>1.5</v>
@@ -38862,7 +38871,7 @@
         <v>212</v>
       </c>
       <c r="P183" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q183">
         <v>1.5</v>
@@ -38943,7 +38952,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ183">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR183">
         <v>2.52</v>
@@ -39068,7 +39077,7 @@
         <v>213</v>
       </c>
       <c r="P184" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q184">
         <v>1.91</v>
@@ -39274,7 +39283,7 @@
         <v>214</v>
       </c>
       <c r="P185" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -39480,7 +39489,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q186">
         <v>2.25</v>
@@ -39686,7 +39695,7 @@
         <v>85</v>
       </c>
       <c r="P187" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -39767,7 +39776,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ187">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR187">
         <v>1.63</v>
@@ -39970,7 +39979,7 @@
         <v>1.2</v>
       </c>
       <c r="AP188">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ188">
         <v>1.13</v>
@@ -40098,7 +40107,7 @@
         <v>217</v>
       </c>
       <c r="P189" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q189">
         <v>6.5</v>
@@ -40304,7 +40313,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -40922,7 +40931,7 @@
         <v>221</v>
       </c>
       <c r="P193" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41078,6 +41087,418 @@
         <v>0</v>
       </c>
       <c r="BP193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7885740</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45773.34375</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>79</v>
+      </c>
+      <c r="H194" t="s">
+        <v>71</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>3</v>
+      </c>
+      <c r="L194">
+        <v>5</v>
+      </c>
+      <c r="M194">
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>7</v>
+      </c>
+      <c r="O194" t="s">
+        <v>222</v>
+      </c>
+      <c r="P194" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q194">
+        <v>2.63</v>
+      </c>
+      <c r="R194">
+        <v>2.3</v>
+      </c>
+      <c r="S194">
+        <v>3.25</v>
+      </c>
+      <c r="T194">
+        <v>1.29</v>
+      </c>
+      <c r="U194">
+        <v>3.5</v>
+      </c>
+      <c r="V194">
+        <v>2.38</v>
+      </c>
+      <c r="W194">
+        <v>1.53</v>
+      </c>
+      <c r="X194">
+        <v>5</v>
+      </c>
+      <c r="Y194">
+        <v>1.14</v>
+      </c>
+      <c r="Z194">
+        <v>2.16</v>
+      </c>
+      <c r="AA194">
+        <v>3.51</v>
+      </c>
+      <c r="AB194">
+        <v>3.11</v>
+      </c>
+      <c r="AC194">
+        <v>0</v>
+      </c>
+      <c r="AD194">
+        <v>0</v>
+      </c>
+      <c r="AE194">
+        <v>0</v>
+      </c>
+      <c r="AF194">
+        <v>0</v>
+      </c>
+      <c r="AG194">
+        <v>1.46</v>
+      </c>
+      <c r="AH194">
+        <v>2.52</v>
+      </c>
+      <c r="AI194">
+        <v>1.5</v>
+      </c>
+      <c r="AJ194">
+        <v>2.5</v>
+      </c>
+      <c r="AK194">
+        <v>0</v>
+      </c>
+      <c r="AL194">
+        <v>0</v>
+      </c>
+      <c r="AM194">
+        <v>0</v>
+      </c>
+      <c r="AN194">
+        <v>1.5</v>
+      </c>
+      <c r="AO194">
+        <v>1.63</v>
+      </c>
+      <c r="AP194">
+        <v>1.55</v>
+      </c>
+      <c r="AQ194">
+        <v>1.58</v>
+      </c>
+      <c r="AR194">
+        <v>1.39</v>
+      </c>
+      <c r="AS194">
+        <v>1.55</v>
+      </c>
+      <c r="AT194">
+        <v>2.94</v>
+      </c>
+      <c r="AU194">
+        <v>9</v>
+      </c>
+      <c r="AV194">
+        <v>7</v>
+      </c>
+      <c r="AW194">
+        <v>8</v>
+      </c>
+      <c r="AX194">
+        <v>5</v>
+      </c>
+      <c r="AY194">
+        <v>17</v>
+      </c>
+      <c r="AZ194">
+        <v>12</v>
+      </c>
+      <c r="BA194">
+        <v>2</v>
+      </c>
+      <c r="BB194">
+        <v>0</v>
+      </c>
+      <c r="BC194">
+        <v>2</v>
+      </c>
+      <c r="BD194">
+        <v>0</v>
+      </c>
+      <c r="BE194">
+        <v>0</v>
+      </c>
+      <c r="BF194">
+        <v>0</v>
+      </c>
+      <c r="BG194">
+        <v>0</v>
+      </c>
+      <c r="BH194">
+        <v>0</v>
+      </c>
+      <c r="BI194">
+        <v>0</v>
+      </c>
+      <c r="BJ194">
+        <v>0</v>
+      </c>
+      <c r="BK194">
+        <v>0</v>
+      </c>
+      <c r="BL194">
+        <v>0</v>
+      </c>
+      <c r="BM194">
+        <v>0</v>
+      </c>
+      <c r="BN194">
+        <v>0</v>
+      </c>
+      <c r="BO194">
+        <v>0</v>
+      </c>
+      <c r="BP194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7885739</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45773.4375</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>76</v>
+      </c>
+      <c r="H195" t="s">
+        <v>75</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195" t="s">
+        <v>223</v>
+      </c>
+      <c r="P195" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q195">
+        <v>2.88</v>
+      </c>
+      <c r="R195">
+        <v>2.1</v>
+      </c>
+      <c r="S195">
+        <v>3.6</v>
+      </c>
+      <c r="T195">
+        <v>1.4</v>
+      </c>
+      <c r="U195">
+        <v>2.75</v>
+      </c>
+      <c r="V195">
+        <v>3</v>
+      </c>
+      <c r="W195">
+        <v>1.36</v>
+      </c>
+      <c r="X195">
+        <v>7</v>
+      </c>
+      <c r="Y195">
+        <v>1.08</v>
+      </c>
+      <c r="Z195">
+        <v>2.2</v>
+      </c>
+      <c r="AA195">
+        <v>3.3</v>
+      </c>
+      <c r="AB195">
+        <v>3.2</v>
+      </c>
+      <c r="AC195">
+        <v>0</v>
+      </c>
+      <c r="AD195">
+        <v>0</v>
+      </c>
+      <c r="AE195">
+        <v>0</v>
+      </c>
+      <c r="AF195">
+        <v>0</v>
+      </c>
+      <c r="AG195">
+        <v>1.92</v>
+      </c>
+      <c r="AH195">
+        <v>1.82</v>
+      </c>
+      <c r="AI195">
+        <v>1.73</v>
+      </c>
+      <c r="AJ195">
+        <v>2</v>
+      </c>
+      <c r="AK195">
+        <v>0</v>
+      </c>
+      <c r="AL195">
+        <v>0</v>
+      </c>
+      <c r="AM195">
+        <v>0</v>
+      </c>
+      <c r="AN195">
+        <v>1.38</v>
+      </c>
+      <c r="AO195">
+        <v>1.16</v>
+      </c>
+      <c r="AP195">
+        <v>1.42</v>
+      </c>
+      <c r="AQ195">
+        <v>1.12</v>
+      </c>
+      <c r="AR195">
+        <v>1.32</v>
+      </c>
+      <c r="AS195">
+        <v>1.29</v>
+      </c>
+      <c r="AT195">
+        <v>2.61</v>
+      </c>
+      <c r="AU195">
+        <v>4</v>
+      </c>
+      <c r="AV195">
+        <v>5</v>
+      </c>
+      <c r="AW195">
+        <v>7</v>
+      </c>
+      <c r="AX195">
+        <v>2</v>
+      </c>
+      <c r="AY195">
+        <v>11</v>
+      </c>
+      <c r="AZ195">
+        <v>7</v>
+      </c>
+      <c r="BA195">
+        <v>5</v>
+      </c>
+      <c r="BB195">
+        <v>1</v>
+      </c>
+      <c r="BC195">
+        <v>6</v>
+      </c>
+      <c r="BD195">
+        <v>0</v>
+      </c>
+      <c r="BE195">
+        <v>0</v>
+      </c>
+      <c r="BF195">
+        <v>0</v>
+      </c>
+      <c r="BG195">
+        <v>0</v>
+      </c>
+      <c r="BH195">
+        <v>0</v>
+      </c>
+      <c r="BI195">
+        <v>0</v>
+      </c>
+      <c r="BJ195">
+        <v>0</v>
+      </c>
+      <c r="BK195">
+        <v>0</v>
+      </c>
+      <c r="BL195">
+        <v>0</v>
+      </c>
+      <c r="BM195">
+        <v>0</v>
+      </c>
+      <c r="BN195">
+        <v>0</v>
+      </c>
+      <c r="BO195">
+        <v>0</v>
+      </c>
+      <c r="BP195">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,6 +682,9 @@
     <t>['45', '50', '86']</t>
   </si>
   <si>
+    <t>['23', '45+2', '46', '58', '73']</t>
+  </si>
+  <si>
     <t>['90+3']</t>
   </si>
   <si>
@@ -959,6 +962,9 @@
   </si>
   <si>
     <t>['73', '90']</t>
+  </si>
+  <si>
+    <t>['6', '86']</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP195"/>
+  <dimension ref="A1:BP196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1579,7 +1585,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1991,7 +1997,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2403,7 +2409,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2609,7 +2615,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -2896,7 +2902,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ8">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3433,7 +3439,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3639,7 +3645,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3717,7 +3723,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -4051,7 +4057,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4463,7 +4469,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4750,7 +4756,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR17">
         <v>0.68</v>
@@ -5081,7 +5087,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q19">
         <v>4.75</v>
@@ -5493,7 +5499,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5777,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>0.88</v>
@@ -6111,7 +6117,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6317,7 +6323,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6523,7 +6529,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6729,7 +6735,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6807,7 +6813,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>1.12</v>
@@ -7141,7 +7147,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q29">
         <v>13</v>
@@ -7759,7 +7765,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q32">
         <v>1.83</v>
@@ -7840,7 +7846,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ32">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR32">
         <v>1.41</v>
@@ -8171,7 +8177,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8789,7 +8795,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8867,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -9282,7 +9288,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ39">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR39">
         <v>3.26</v>
@@ -9613,7 +9619,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9819,7 +9825,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10025,7 +10031,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10849,7 +10855,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -10930,7 +10936,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ47">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR47">
         <v>1.21</v>
@@ -11055,7 +11061,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q48">
         <v>1.67</v>
@@ -11467,7 +11473,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q50">
         <v>2.25</v>
@@ -11673,7 +11679,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11879,7 +11885,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12497,7 +12503,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12703,7 +12709,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -13193,7 +13199,7 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>1.19</v>
@@ -13402,7 +13408,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ59">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR59">
         <v>2.07</v>
@@ -13527,7 +13533,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13939,7 +13945,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14145,7 +14151,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -14351,7 +14357,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14557,7 +14563,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14635,7 +14641,7 @@
         <v>1.2</v>
       </c>
       <c r="AP65">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
         <v>0.8100000000000001</v>
@@ -14969,7 +14975,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -15587,7 +15593,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q70">
         <v>9</v>
@@ -15793,7 +15799,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15874,7 +15880,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ71">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR71">
         <v>1.8</v>
@@ -16411,7 +16417,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16489,7 +16495,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
         <v>0.5600000000000001</v>
@@ -16617,7 +16623,7 @@
         <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -17029,7 +17035,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17235,7 +17241,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17316,7 +17322,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ78">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17441,7 +17447,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17853,7 +17859,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -18265,7 +18271,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18471,7 +18477,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -18677,7 +18683,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18755,7 +18761,7 @@
         <v>2.43</v>
       </c>
       <c r="AP85">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
         <v>1.81</v>
@@ -19707,7 +19713,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -20119,7 +20125,7 @@
         <v>150</v>
       </c>
       <c r="P92" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20531,7 +20537,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20943,7 +20949,7 @@
         <v>153</v>
       </c>
       <c r="P96" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -21149,7 +21155,7 @@
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q97">
         <v>1.73</v>
@@ -21973,7 +21979,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q101">
         <v>3.4</v>
@@ -22179,7 +22185,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22385,7 +22391,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23209,7 +23215,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23415,7 +23421,7 @@
         <v>163</v>
       </c>
       <c r="P108" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q108">
         <v>2.75</v>
@@ -23493,10 +23499,10 @@
         <v>1.38</v>
       </c>
       <c r="AP108">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ108">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR108">
         <v>1.33</v>
@@ -24033,7 +24039,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24114,7 +24120,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ111">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR111">
         <v>1.27</v>
@@ -24239,7 +24245,7 @@
         <v>167</v>
       </c>
       <c r="P112" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q112">
         <v>1.4</v>
@@ -24445,7 +24451,7 @@
         <v>97</v>
       </c>
       <c r="P113" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24651,7 +24657,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24857,7 +24863,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -24935,7 +24941,7 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ115">
         <v>2.25</v>
@@ -25063,7 +25069,7 @@
         <v>85</v>
       </c>
       <c r="P116" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q116">
         <v>3.75</v>
@@ -25475,7 +25481,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q118">
         <v>2.1</v>
@@ -25762,7 +25768,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR119">
         <v>1.37</v>
@@ -26093,7 +26099,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q121">
         <v>2.1</v>
@@ -26711,7 +26717,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q124">
         <v>1.44</v>
@@ -27329,7 +27335,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q127">
         <v>2.3</v>
@@ -27535,7 +27541,7 @@
         <v>139</v>
       </c>
       <c r="P128" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27947,7 +27953,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -28153,7 +28159,7 @@
         <v>85</v>
       </c>
       <c r="P131" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q131">
         <v>5.5</v>
@@ -28437,7 +28443,7 @@
         <v>0.7</v>
       </c>
       <c r="AP132">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132">
         <v>0.88</v>
@@ -28565,7 +28571,7 @@
         <v>85</v>
       </c>
       <c r="P133" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q133">
         <v>2.75</v>
@@ -28771,7 +28777,7 @@
         <v>179</v>
       </c>
       <c r="P134" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q134">
         <v>4.75</v>
@@ -28977,7 +28983,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29183,7 +29189,7 @@
         <v>121</v>
       </c>
       <c r="P136" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q136">
         <v>3.75</v>
@@ -29264,7 +29270,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ136">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR136">
         <v>1.08</v>
@@ -29389,7 +29395,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q137">
         <v>2.38</v>
@@ -29801,7 +29807,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q139">
         <v>2.7</v>
@@ -30419,7 +30425,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q142">
         <v>1.53</v>
@@ -30831,7 +30837,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -31530,7 +31536,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ147">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR147">
         <v>1.56</v>
@@ -32145,7 +32151,7 @@
         <v>1.75</v>
       </c>
       <c r="AP150">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
         <v>1.5</v>
@@ -32273,7 +32279,7 @@
         <v>85</v>
       </c>
       <c r="P151" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -32351,7 +32357,7 @@
         <v>2.18</v>
       </c>
       <c r="AP151">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ151">
         <v>2.25</v>
@@ -32479,7 +32485,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -33097,7 +33103,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33175,7 +33181,7 @@
         <v>2</v>
       </c>
       <c r="AP155">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155">
         <v>1.81</v>
@@ -33303,7 +33309,7 @@
         <v>85</v>
       </c>
       <c r="P156" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q156">
         <v>2.88</v>
@@ -33509,7 +33515,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q157">
         <v>2.63</v>
@@ -33715,7 +33721,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -33796,7 +33802,7 @@
         <v>1</v>
       </c>
       <c r="AQ158">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR158">
         <v>1.4</v>
@@ -34127,7 +34133,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q160">
         <v>2.88</v>
@@ -34539,7 +34545,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -34745,7 +34751,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q163">
         <v>2.2</v>
@@ -35157,7 +35163,7 @@
         <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q165">
         <v>1.83</v>
@@ -36187,7 +36193,7 @@
         <v>100</v>
       </c>
       <c r="P170" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -36471,7 +36477,7 @@
         <v>1.07</v>
       </c>
       <c r="AP171">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ171">
         <v>0.88</v>
@@ -36599,7 +36605,7 @@
         <v>206</v>
       </c>
       <c r="P172" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -37011,7 +37017,7 @@
         <v>85</v>
       </c>
       <c r="P174" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q174">
         <v>6.75</v>
@@ -37217,7 +37223,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37298,7 +37304,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ175">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR175">
         <v>1.86</v>
@@ -37423,7 +37429,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q176">
         <v>2.05</v>
@@ -37629,7 +37635,7 @@
         <v>133</v>
       </c>
       <c r="P177" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q177">
         <v>3.64</v>
@@ -38865,7 +38871,7 @@
         <v>212</v>
       </c>
       <c r="P183" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q183">
         <v>1.5</v>
@@ -39071,7 +39077,7 @@
         <v>213</v>
       </c>
       <c r="P184" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q184">
         <v>1.91</v>
@@ -39277,7 +39283,7 @@
         <v>214</v>
       </c>
       <c r="P185" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -39483,7 +39489,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q186">
         <v>2.25</v>
@@ -39689,7 +39695,7 @@
         <v>85</v>
       </c>
       <c r="P187" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -39770,7 +39776,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ187">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR187">
         <v>1.63</v>
@@ -39973,7 +39979,7 @@
         <v>1.2</v>
       </c>
       <c r="AP188">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ188">
         <v>1.12</v>
@@ -40101,7 +40107,7 @@
         <v>217</v>
       </c>
       <c r="P189" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q189">
         <v>6.5</v>
@@ -40307,7 +40313,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -40925,7 +40931,7 @@
         <v>221</v>
       </c>
       <c r="P193" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41089,7 +41095,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7885739</v>
+        <v>7885740</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41098,76 +41104,76 @@
         <v>69</v>
       </c>
       <c r="E194" s="2">
-        <v>45773.4375</v>
+        <v>45773.34375</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H194" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L194">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N194">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O194" t="s">
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>85</v>
+        <v>316</v>
       </c>
       <c r="Q194">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="R194">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S194">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="T194">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="U194">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V194">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="W194">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="X194">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y194">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="Z194">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="AA194">
-        <v>3.3</v>
+        <v>3.51</v>
       </c>
       <c r="AB194">
-        <v>3.2</v>
+        <v>3.11</v>
       </c>
       <c r="AC194">
         <v>0</v>
@@ -41182,16 +41188,16 @@
         <v>0</v>
       </c>
       <c r="AG194">
-        <v>1.92</v>
+        <v>1.46</v>
       </c>
       <c r="AH194">
-        <v>1.82</v>
+        <v>2.52</v>
       </c>
       <c r="AI194">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AJ194">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AK194">
         <v>0</v>
@@ -41203,52 +41209,52 @@
         <v>0</v>
       </c>
       <c r="AN194">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AO194">
-        <v>1.16</v>
+        <v>1.63</v>
       </c>
       <c r="AP194">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="AQ194">
-        <v>1.12</v>
+        <v>1.58</v>
       </c>
       <c r="AR194">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AS194">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="AT194">
-        <v>2.61</v>
+        <v>2.94</v>
       </c>
       <c r="AU194">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV194">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW194">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX194">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY194">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ194">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BA194">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC194">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BD194">
         <v>0</v>
@@ -41295,7 +41301,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7897659</v>
+        <v>7885739</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41304,16 +41310,16 @@
         <v>69</v>
       </c>
       <c r="E195" s="2">
-        <v>45788.54861111111</v>
+        <v>45773.4375</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H195" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -41325,174 +41331,380 @@
         <v>0</v>
       </c>
       <c r="L195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M195">
         <v>0</v>
       </c>
       <c r="N195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O195" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="P195" t="s">
         <v>85</v>
       </c>
       <c r="Q195">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="R195">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S195">
+        <v>3.6</v>
+      </c>
+      <c r="T195">
+        <v>1.4</v>
+      </c>
+      <c r="U195">
+        <v>2.75</v>
+      </c>
+      <c r="V195">
+        <v>3</v>
+      </c>
+      <c r="W195">
+        <v>1.36</v>
+      </c>
+      <c r="X195">
+        <v>7</v>
+      </c>
+      <c r="Y195">
+        <v>1.08</v>
+      </c>
+      <c r="Z195">
+        <v>2.2</v>
+      </c>
+      <c r="AA195">
+        <v>3.3</v>
+      </c>
+      <c r="AB195">
+        <v>3.2</v>
+      </c>
+      <c r="AC195">
+        <v>0</v>
+      </c>
+      <c r="AD195">
+        <v>0</v>
+      </c>
+      <c r="AE195">
+        <v>0</v>
+      </c>
+      <c r="AF195">
+        <v>0</v>
+      </c>
+      <c r="AG195">
+        <v>1.92</v>
+      </c>
+      <c r="AH195">
+        <v>1.82</v>
+      </c>
+      <c r="AI195">
+        <v>1.73</v>
+      </c>
+      <c r="AJ195">
+        <v>2</v>
+      </c>
+      <c r="AK195">
+        <v>0</v>
+      </c>
+      <c r="AL195">
+        <v>0</v>
+      </c>
+      <c r="AM195">
+        <v>0</v>
+      </c>
+      <c r="AN195">
+        <v>1.38</v>
+      </c>
+      <c r="AO195">
+        <v>1.16</v>
+      </c>
+      <c r="AP195">
+        <v>1.41</v>
+      </c>
+      <c r="AQ195">
+        <v>1.12</v>
+      </c>
+      <c r="AR195">
+        <v>1.32</v>
+      </c>
+      <c r="AS195">
+        <v>1.29</v>
+      </c>
+      <c r="AT195">
+        <v>2.61</v>
+      </c>
+      <c r="AU195">
         <v>4</v>
       </c>
-      <c r="T195">
-        <v>1.3</v>
-      </c>
-      <c r="U195">
-        <v>3.4</v>
-      </c>
-      <c r="V195">
-        <v>2.5</v>
-      </c>
-      <c r="W195">
-        <v>1.5</v>
-      </c>
-      <c r="X195">
-        <v>5.5</v>
-      </c>
-      <c r="Y195">
-        <v>1.13</v>
-      </c>
-      <c r="Z195">
-        <v>1.8</v>
-      </c>
-      <c r="AA195">
-        <v>3.5</v>
-      </c>
-      <c r="AB195">
-        <v>3.6</v>
-      </c>
-      <c r="AC195">
-        <v>1.01</v>
-      </c>
-      <c r="AD195">
+      <c r="AV195">
+        <v>5</v>
+      </c>
+      <c r="AW195">
+        <v>7</v>
+      </c>
+      <c r="AX195">
+        <v>2</v>
+      </c>
+      <c r="AY195">
         <v>11</v>
       </c>
-      <c r="AE195">
-        <v>1.17</v>
-      </c>
-      <c r="AF195">
-        <v>3.98</v>
-      </c>
-      <c r="AG195">
-        <v>1.7</v>
-      </c>
-      <c r="AH195">
-        <v>2.1</v>
-      </c>
-      <c r="AI195">
-        <v>1.67</v>
-      </c>
-      <c r="AJ195">
-        <v>2.1</v>
-      </c>
-      <c r="AK195">
-        <v>1.22</v>
-      </c>
-      <c r="AL195">
-        <v>1.22</v>
-      </c>
-      <c r="AM195">
-        <v>1.85</v>
-      </c>
-      <c r="AN195">
-        <v>1.5</v>
-      </c>
-      <c r="AO195">
-        <v>1.42</v>
-      </c>
-      <c r="AP195">
-        <v>1.48</v>
-      </c>
-      <c r="AQ195">
-        <v>1.41</v>
-      </c>
-      <c r="AR195">
-        <v>1.39</v>
-      </c>
-      <c r="AS195">
-        <v>1.32</v>
-      </c>
-      <c r="AT195">
-        <v>2.71</v>
-      </c>
-      <c r="AU195">
+      <c r="AZ195">
         <v>7</v>
-      </c>
-      <c r="AV195">
-        <v>2</v>
-      </c>
-      <c r="AW195">
-        <v>5</v>
-      </c>
-      <c r="AX195">
-        <v>6</v>
-      </c>
-      <c r="AY195">
-        <v>12</v>
-      </c>
-      <c r="AZ195">
-        <v>8</v>
       </c>
       <c r="BA195">
         <v>5</v>
       </c>
       <c r="BB195">
+        <v>1</v>
+      </c>
+      <c r="BC195">
+        <v>6</v>
+      </c>
+      <c r="BD195">
+        <v>0</v>
+      </c>
+      <c r="BE195">
+        <v>0</v>
+      </c>
+      <c r="BF195">
+        <v>0</v>
+      </c>
+      <c r="BG195">
+        <v>0</v>
+      </c>
+      <c r="BH195">
+        <v>0</v>
+      </c>
+      <c r="BI195">
+        <v>0</v>
+      </c>
+      <c r="BJ195">
+        <v>0</v>
+      </c>
+      <c r="BK195">
+        <v>0</v>
+      </c>
+      <c r="BL195">
+        <v>0</v>
+      </c>
+      <c r="BM195">
+        <v>0</v>
+      </c>
+      <c r="BN195">
+        <v>0</v>
+      </c>
+      <c r="BO195">
+        <v>0</v>
+      </c>
+      <c r="BP195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7897659</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45788.54861111111</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>79</v>
+      </c>
+      <c r="H196" t="s">
+        <v>75</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196" t="s">
+        <v>85</v>
+      </c>
+      <c r="P196" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q196">
+        <v>2.38</v>
+      </c>
+      <c r="R196">
+        <v>2.3</v>
+      </c>
+      <c r="S196">
         <v>4</v>
       </c>
-      <c r="BC195">
+      <c r="T196">
+        <v>1.3</v>
+      </c>
+      <c r="U196">
+        <v>3.4</v>
+      </c>
+      <c r="V196">
+        <v>2.5</v>
+      </c>
+      <c r="W196">
+        <v>1.5</v>
+      </c>
+      <c r="X196">
+        <v>5.5</v>
+      </c>
+      <c r="Y196">
+        <v>1.13</v>
+      </c>
+      <c r="Z196">
+        <v>1.8</v>
+      </c>
+      <c r="AA196">
+        <v>3.5</v>
+      </c>
+      <c r="AB196">
+        <v>3.6</v>
+      </c>
+      <c r="AC196">
+        <v>1.01</v>
+      </c>
+      <c r="AD196">
+        <v>11</v>
+      </c>
+      <c r="AE196">
+        <v>1.17</v>
+      </c>
+      <c r="AF196">
+        <v>3.98</v>
+      </c>
+      <c r="AG196">
+        <v>1.7</v>
+      </c>
+      <c r="AH196">
+        <v>2.1</v>
+      </c>
+      <c r="AI196">
+        <v>1.67</v>
+      </c>
+      <c r="AJ196">
+        <v>2.1</v>
+      </c>
+      <c r="AK196">
+        <v>1.22</v>
+      </c>
+      <c r="AL196">
+        <v>1.22</v>
+      </c>
+      <c r="AM196">
+        <v>1.85</v>
+      </c>
+      <c r="AN196">
+        <v>1.55</v>
+      </c>
+      <c r="AO196">
+        <v>1.42</v>
+      </c>
+      <c r="AP196">
+        <v>1.53</v>
+      </c>
+      <c r="AQ196">
+        <v>1.41</v>
+      </c>
+      <c r="AR196">
+        <v>1.39</v>
+      </c>
+      <c r="AS196">
+        <v>1.32</v>
+      </c>
+      <c r="AT196">
+        <v>2.71</v>
+      </c>
+      <c r="AU196">
+        <v>7</v>
+      </c>
+      <c r="AV196">
+        <v>2</v>
+      </c>
+      <c r="AW196">
+        <v>5</v>
+      </c>
+      <c r="AX196">
+        <v>6</v>
+      </c>
+      <c r="AY196">
+        <v>12</v>
+      </c>
+      <c r="AZ196">
+        <v>8</v>
+      </c>
+      <c r="BA196">
+        <v>5</v>
+      </c>
+      <c r="BB196">
+        <v>4</v>
+      </c>
+      <c r="BC196">
         <v>9</v>
       </c>
-      <c r="BD195">
+      <c r="BD196">
         <v>1.92</v>
       </c>
-      <c r="BE195">
+      <c r="BE196">
         <v>5.75</v>
       </c>
-      <c r="BF195">
+      <c r="BF196">
         <v>2.36</v>
       </c>
-      <c r="BG195">
+      <c r="BG196">
         <v>1.74</v>
       </c>
-      <c r="BH195">
-        <v>2</v>
-      </c>
-      <c r="BI195">
+      <c r="BH196">
+        <v>2</v>
+      </c>
+      <c r="BI196">
         <v>2.19</v>
       </c>
-      <c r="BJ195">
+      <c r="BJ196">
         <v>1.6</v>
       </c>
-      <c r="BK195">
+      <c r="BK196">
         <v>2.92</v>
       </c>
-      <c r="BL195">
+      <c r="BL196">
         <v>1.31</v>
       </c>
-      <c r="BM195">
+      <c r="BM196">
         <v>4.3</v>
       </c>
-      <c r="BN195">
+      <c r="BN196">
         <v>1.15</v>
       </c>
-      <c r="BO195">
+      <c r="BO196">
         <v>5.55</v>
       </c>
-      <c r="BP195">
+      <c r="BP196">
         <v>1.1</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -688,6 +688,9 @@
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['17', '32', '85']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -1326,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP196"/>
+  <dimension ref="A1:BP197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1585,7 +1588,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1997,7 +2000,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2409,7 +2412,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2615,7 +2618,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q7">
         <v>11</v>
@@ -3439,7 +3442,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3645,7 +3648,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -4057,7 +4060,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4341,7 +4344,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ15">
         <v>1.81</v>
@@ -4469,7 +4472,7 @@
         <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4550,7 +4553,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ16">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR16">
         <v>2.12</v>
@@ -5087,7 +5090,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q19">
         <v>4.75</v>
@@ -5499,7 +5502,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5989,7 +5992,7 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ23">
         <v>0.8100000000000001</v>
@@ -6117,7 +6120,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6323,7 +6326,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6529,7 +6532,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6735,7 +6738,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7147,7 +7150,7 @@
         <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q29">
         <v>13</v>
@@ -7225,7 +7228,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ29">
         <v>2.25</v>
@@ -7434,7 +7437,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ30">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR30">
         <v>2.16</v>
@@ -7765,7 +7768,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q32">
         <v>1.83</v>
@@ -8177,7 +8180,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8795,7 +8798,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -9619,7 +9622,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9825,7 +9828,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -10031,7 +10034,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10318,7 +10321,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ44">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR44">
         <v>1.74</v>
@@ -10855,7 +10858,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -10933,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ47">
         <v>1.29</v>
@@ -11061,7 +11064,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q48">
         <v>1.67</v>
@@ -11473,7 +11476,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q50">
         <v>2.25</v>
@@ -11679,7 +11682,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11885,7 +11888,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11966,7 +11969,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR52">
         <v>1.62</v>
@@ -12169,7 +12172,7 @@
         <v>2.5</v>
       </c>
       <c r="AP53">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ53">
         <v>1.12</v>
@@ -12503,7 +12506,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12709,7 +12712,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -13533,7 +13536,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13945,7 +13948,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14151,7 +14154,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -14232,7 +14235,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ63">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR63">
         <v>1.21</v>
@@ -14357,7 +14360,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14438,7 +14441,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ64">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR64">
         <v>3.13</v>
@@ -14563,7 +14566,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
@@ -14847,7 +14850,7 @@
         <v>1.4</v>
       </c>
       <c r="AP66">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ66">
         <v>1.19</v>
@@ -14975,7 +14978,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -15593,7 +15596,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q70">
         <v>9</v>
@@ -15799,7 +15802,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16417,7 +16420,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16623,7 +16626,7 @@
         <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -17035,7 +17038,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17241,7 +17244,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17447,7 +17450,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17731,10 +17734,10 @@
         <v>2.17</v>
       </c>
       <c r="AP80">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ80">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR80">
         <v>1.28</v>
@@ -17859,7 +17862,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -18271,7 +18274,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18477,7 +18480,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -18683,7 +18686,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -19173,7 +19176,7 @@
         <v>1.17</v>
       </c>
       <c r="AP87">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ87">
         <v>0.88</v>
@@ -19713,7 +19716,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -20125,7 +20128,7 @@
         <v>150</v>
       </c>
       <c r="P92" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20412,7 +20415,7 @@
         <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR93">
         <v>1.26</v>
@@ -20537,7 +20540,7 @@
         <v>151</v>
       </c>
       <c r="P94" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20949,7 +20952,7 @@
         <v>153</v>
       </c>
       <c r="P96" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -21155,7 +21158,7 @@
         <v>154</v>
       </c>
       <c r="P97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q97">
         <v>1.73</v>
@@ -21439,7 +21442,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ98">
         <v>0.88</v>
@@ -21979,7 +21982,7 @@
         <v>85</v>
       </c>
       <c r="P101" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q101">
         <v>3.4</v>
@@ -22185,7 +22188,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22391,7 +22394,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22472,7 +22475,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ103">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR103">
         <v>1.45</v>
@@ -23215,7 +23218,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23421,7 +23424,7 @@
         <v>163</v>
       </c>
       <c r="P108" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q108">
         <v>2.75</v>
@@ -23914,7 +23917,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ110">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR110">
         <v>0.97</v>
@@ -24039,7 +24042,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24245,7 +24248,7 @@
         <v>167</v>
       </c>
       <c r="P112" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q112">
         <v>1.4</v>
@@ -24451,7 +24454,7 @@
         <v>97</v>
       </c>
       <c r="P113" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24657,7 +24660,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24863,7 +24866,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q115">
         <v>6</v>
@@ -25069,7 +25072,7 @@
         <v>85</v>
       </c>
       <c r="P116" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q116">
         <v>3.75</v>
@@ -25481,7 +25484,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q118">
         <v>2.1</v>
@@ -26099,7 +26102,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q121">
         <v>2.1</v>
@@ -26589,7 +26592,7 @@
         <v>0.3</v>
       </c>
       <c r="AP123">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ123">
         <v>0.5600000000000001</v>
@@ -26717,7 +26720,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q124">
         <v>1.44</v>
@@ -27001,7 +27004,7 @@
         <v>0.67</v>
       </c>
       <c r="AP125">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ125">
         <v>1</v>
@@ -27335,7 +27338,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q127">
         <v>2.3</v>
@@ -27416,7 +27419,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ127">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR127">
         <v>1.34</v>
@@ -27541,7 +27544,7 @@
         <v>139</v>
       </c>
       <c r="P128" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27953,7 +27956,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -28159,7 +28162,7 @@
         <v>85</v>
       </c>
       <c r="P131" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q131">
         <v>5.5</v>
@@ -28571,7 +28574,7 @@
         <v>85</v>
       </c>
       <c r="P133" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q133">
         <v>2.75</v>
@@ -28777,7 +28780,7 @@
         <v>179</v>
       </c>
       <c r="P134" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q134">
         <v>4.75</v>
@@ -28983,7 +28986,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29189,7 +29192,7 @@
         <v>121</v>
       </c>
       <c r="P136" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q136">
         <v>3.75</v>
@@ -29395,7 +29398,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q137">
         <v>2.38</v>
@@ -29473,7 +29476,7 @@
         <v>1.36</v>
       </c>
       <c r="AP137">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ137">
         <v>0.88</v>
@@ -29807,7 +29810,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q139">
         <v>2.7</v>
@@ -29888,7 +29891,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ139">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR139">
         <v>1.37</v>
@@ -30425,7 +30428,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q142">
         <v>1.53</v>
@@ -30837,7 +30840,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q144">
         <v>2.1</v>
@@ -32279,7 +32282,7 @@
         <v>85</v>
       </c>
       <c r="P151" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -32485,7 +32488,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q152">
         <v>6</v>
@@ -32769,7 +32772,7 @@
         <v>1.33</v>
       </c>
       <c r="AP153">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ153">
         <v>1.12</v>
@@ -33103,7 +33106,7 @@
         <v>193</v>
       </c>
       <c r="P155" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q155">
         <v>3.25</v>
@@ -33309,7 +33312,7 @@
         <v>85</v>
       </c>
       <c r="P156" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q156">
         <v>2.88</v>
@@ -33515,7 +33518,7 @@
         <v>194</v>
       </c>
       <c r="P157" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q157">
         <v>2.63</v>
@@ -33721,7 +33724,7 @@
         <v>195</v>
       </c>
       <c r="P158" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34133,7 +34136,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q160">
         <v>2.88</v>
@@ -34545,7 +34548,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -34626,7 +34629,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ162">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR162">
         <v>1.46</v>
@@ -34751,7 +34754,7 @@
         <v>200</v>
       </c>
       <c r="P163" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q163">
         <v>2.2</v>
@@ -35038,7 +35041,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ164">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR164">
         <v>2.54</v>
@@ -35163,7 +35166,7 @@
         <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q165">
         <v>1.83</v>
@@ -36193,7 +36196,7 @@
         <v>100</v>
       </c>
       <c r="P170" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -36271,7 +36274,7 @@
         <v>1.86</v>
       </c>
       <c r="AP170">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ170">
         <v>1.81</v>
@@ -36605,7 +36608,7 @@
         <v>206</v>
       </c>
       <c r="P172" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -37017,7 +37020,7 @@
         <v>85</v>
       </c>
       <c r="P174" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q174">
         <v>6.75</v>
@@ -37223,7 +37226,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37429,7 +37432,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q176">
         <v>2.05</v>
@@ -37635,7 +37638,7 @@
         <v>133</v>
       </c>
       <c r="P177" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q177">
         <v>3.64</v>
@@ -38125,10 +38128,10 @@
         <v>1.71</v>
       </c>
       <c r="AP179">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ179">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR179">
         <v>1.53</v>
@@ -38871,7 +38874,7 @@
         <v>212</v>
       </c>
       <c r="P183" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q183">
         <v>1.5</v>
@@ -39077,7 +39080,7 @@
         <v>213</v>
       </c>
       <c r="P184" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q184">
         <v>1.91</v>
@@ -39283,7 +39286,7 @@
         <v>214</v>
       </c>
       <c r="P185" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -39489,7 +39492,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q186">
         <v>2.25</v>
@@ -39570,7 +39573,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ186">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR186">
         <v>1.59</v>
@@ -39695,7 +39698,7 @@
         <v>85</v>
       </c>
       <c r="P187" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -40107,7 +40110,7 @@
         <v>217</v>
       </c>
       <c r="P189" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q189">
         <v>6.5</v>
@@ -40185,7 +40188,7 @@
         <v>2.2</v>
       </c>
       <c r="AP189">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ189">
         <v>2.25</v>
@@ -40313,7 +40316,7 @@
         <v>218</v>
       </c>
       <c r="P190" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -40931,7 +40934,7 @@
         <v>221</v>
       </c>
       <c r="P193" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41137,7 +41140,7 @@
         <v>222</v>
       </c>
       <c r="P194" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q194">
         <v>2.63</v>
@@ -41215,7 +41218,7 @@
         <v>1.63</v>
       </c>
       <c r="AP194">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AQ194">
         <v>1.58</v>
@@ -41627,7 +41630,7 @@
         <v>1.42</v>
       </c>
       <c r="AP196">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AQ196">
         <v>1.41</v>
@@ -41706,6 +41709,212 @@
       </c>
       <c r="BP196">
         <v>1.1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7897660</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45795.54861111111</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197" t="s">
+        <v>80</v>
+      </c>
+      <c r="H197" t="s">
+        <v>79</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>3</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>4</v>
+      </c>
+      <c r="O197" t="s">
+        <v>224</v>
+      </c>
+      <c r="P197" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q197">
+        <v>2.75</v>
+      </c>
+      <c r="R197">
+        <v>2.1</v>
+      </c>
+      <c r="S197">
+        <v>3.8</v>
+      </c>
+      <c r="T197">
+        <v>1.4</v>
+      </c>
+      <c r="U197">
+        <v>2.8</v>
+      </c>
+      <c r="V197">
+        <v>2.9</v>
+      </c>
+      <c r="W197">
+        <v>1.36</v>
+      </c>
+      <c r="X197">
+        <v>8</v>
+      </c>
+      <c r="Y197">
+        <v>1.07</v>
+      </c>
+      <c r="Z197">
+        <v>2.14</v>
+      </c>
+      <c r="AA197">
+        <v>3.16</v>
+      </c>
+      <c r="AB197">
+        <v>3.16</v>
+      </c>
+      <c r="AC197">
+        <v>1.06</v>
+      </c>
+      <c r="AD197">
+        <v>8.5</v>
+      </c>
+      <c r="AE197">
+        <v>1.33</v>
+      </c>
+      <c r="AF197">
+        <v>3.1</v>
+      </c>
+      <c r="AG197">
+        <v>1.91</v>
+      </c>
+      <c r="AH197">
+        <v>1.79</v>
+      </c>
+      <c r="AI197">
+        <v>1.85</v>
+      </c>
+      <c r="AJ197">
+        <v>1.85</v>
+      </c>
+      <c r="AK197">
+        <v>1.28</v>
+      </c>
+      <c r="AL197">
+        <v>1.28</v>
+      </c>
+      <c r="AM197">
+        <v>1.62</v>
+      </c>
+      <c r="AN197">
+        <v>1.59</v>
+      </c>
+      <c r="AO197">
+        <v>1.53</v>
+      </c>
+      <c r="AP197">
+        <v>1.64</v>
+      </c>
+      <c r="AQ197">
+        <v>1.49</v>
+      </c>
+      <c r="AR197">
+        <v>1.38</v>
+      </c>
+      <c r="AS197">
+        <v>1.39</v>
+      </c>
+      <c r="AT197">
+        <v>2.77</v>
+      </c>
+      <c r="AU197">
+        <v>5</v>
+      </c>
+      <c r="AV197">
+        <v>3</v>
+      </c>
+      <c r="AW197">
+        <v>3</v>
+      </c>
+      <c r="AX197">
+        <v>6</v>
+      </c>
+      <c r="AY197">
+        <v>8</v>
+      </c>
+      <c r="AZ197">
+        <v>9</v>
+      </c>
+      <c r="BA197">
+        <v>4</v>
+      </c>
+      <c r="BB197">
+        <v>3</v>
+      </c>
+      <c r="BC197">
+        <v>7</v>
+      </c>
+      <c r="BD197">
+        <v>1.59</v>
+      </c>
+      <c r="BE197">
+        <v>7.8</v>
+      </c>
+      <c r="BF197">
+        <v>2.77</v>
+      </c>
+      <c r="BG197">
+        <v>1.44</v>
+      </c>
+      <c r="BH197">
+        <v>2.43</v>
+      </c>
+      <c r="BI197">
+        <v>1.82</v>
+      </c>
+      <c r="BJ197">
+        <v>1.84</v>
+      </c>
+      <c r="BK197">
+        <v>2.35</v>
+      </c>
+      <c r="BL197">
+        <v>1.47</v>
+      </c>
+      <c r="BM197">
+        <v>3.2</v>
+      </c>
+      <c r="BN197">
+        <v>1.26</v>
+      </c>
+      <c r="BO197">
+        <v>4.2</v>
+      </c>
+      <c r="BP197">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>
